--- a/Operaciones_telegraficas.xlsx
+++ b/Operaciones_telegraficas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{870DE21E-A5FF-49DE-AFE3-992F1FA611A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F30E0B-7E43-4695-9AE3-5849AB226361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_49" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="23">
   <si>
     <t>Total</t>
   </si>
@@ -104,7 +104,7 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: septiembre 2024.</t>
+    <t>Actualización: Octubre 2024.</t>
   </si>
 </sst>
 </file>
@@ -115,40 +115,40 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Montserrat"/>
+      <name val="Geomanist"/>
       <scheme val="major"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -156,7 +156,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Montserrat Medium"/>
+      <name val="Geomanist"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -400,7 +400,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <scheme val="minor"/>
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
@@ -447,7 +447,7 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="0"/>
-        <name val="Montserrat Medium"/>
+        <name val="Geomanist"/>
         <family val="2"/>
         <scheme val="minor"/>
       </font>
@@ -484,8 +484,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:G86" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G86" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:G87" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G87" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2023"/>
@@ -510,7 +510,7 @@
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
-    <a:clrScheme name="INSTITUCIONAL">
+    <a:clrScheme name="Intitucional 2025">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -518,28 +518,28 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="9F2241"/>
+        <a:srgbClr val="9B2247"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="BC955C"/>
+        <a:srgbClr val="C39326"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="235B4E"/>
+        <a:srgbClr val="806B4A"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="98989A"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="DDC9A3"/>
+        <a:srgbClr val="E6D194"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="691C32"/>
+        <a:srgbClr val="611232"/>
       </a:accent4>
       <a:accent5>
         <a:srgbClr val="6F7271"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="10312B"/>
+        <a:srgbClr val="7E664A"/>
       </a:accent6>
       <a:hlink>
         <a:srgbClr val="4E4E4E"/>
@@ -548,14 +548,14 @@
         <a:srgbClr val="808080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="INSTITUCIONAL">
+    <a:fontScheme name="Personalizado 1">
       <a:majorFont>
-        <a:latin typeface="Montserrat"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Montserrat Medium"/>
+        <a:latin typeface="Geomanist"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -730,34 +730,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:G91"/>
+  <dimension ref="B2:G92"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" customWidth="1"/>
-    <col min="2" max="2" width="6.296875" customWidth="1"/>
-    <col min="3" max="3" width="5.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8984375" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.8984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.19921875" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="1"/>
+    <col min="2" max="2" width="6.5" customWidth="1"/>
+    <col min="3" max="3" width="6.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" ht="18.75" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="2"/>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
       <c r="D4" s="9"/>
@@ -767,7 +767,7 @@
       <c r="F4" s="26"/>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="24" t="s">
         <v>8</v>
       </c>
@@ -787,1729 +787,1750 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B6" s="20">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="18">
         <v>2024</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="13">
+        <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
+        <v>1826310</v>
+      </c>
+      <c r="E6" s="10">
+        <v>309841</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1516469</v>
+      </c>
+      <c r="G6" s="12">
+        <v>11016</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D7" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1682059</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E7" s="11">
         <v>276534</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F7" s="11">
         <v>1405525</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G7" s="11">
         <v>11431</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="18">
+    <row r="8" spans="2:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="18">
         <v>2024</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C8" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="13">
+      <c r="D8" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1896078</v>
       </c>
-      <c r="E7" s="10">
+      <c r="E8" s="10">
         <v>309818</v>
       </c>
-      <c r="F7" s="10">
+      <c r="F8" s="10">
         <v>1586260</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G8" s="12">
         <v>10915</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="20">
+    <row r="9" spans="2:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="20">
         <v>2024</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D9" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1900404</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E9" s="11">
         <v>311727</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F9" s="11">
         <v>1588677</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G9" s="11">
         <v>10905</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="23" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="18">
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="18">
         <v>2024</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C10" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="13">
+      <c r="D10" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1816503</v>
       </c>
-      <c r="E9" s="10">
+      <c r="E10" s="10">
         <v>311623</v>
       </c>
-      <c r="F9" s="10">
+      <c r="F10" s="10">
         <v>1504880</v>
       </c>
-      <c r="G9" s="12">
+      <c r="G10" s="12">
         <v>10376</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B10" s="20">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="20">
         <v>2024</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D11" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1984997</v>
       </c>
-      <c r="E10" s="11">
+      <c r="E11" s="11">
         <v>340780.00000000006</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F11" s="11">
         <v>1644217</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G11" s="11">
         <v>10972</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B11" s="18">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" s="18">
         <v>2024</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C12" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D12" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1899153</v>
       </c>
-      <c r="E11" s="10">
+      <c r="E12" s="10">
         <v>318362</v>
       </c>
-      <c r="F11" s="10">
+      <c r="F12" s="10">
         <v>1580791</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G12" s="12">
         <v>10826</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B12" s="20">
-        <v>2024</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="14">
-        <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
-        <v>1748953</v>
-      </c>
-      <c r="E12" s="11">
-        <v>264745</v>
-      </c>
-      <c r="F12" s="11">
-        <v>1484208</v>
-      </c>
-      <c r="G12" s="11">
-        <v>14629</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B13" s="20">
         <v>2024</v>
       </c>
       <c r="C13" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="14">
+        <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
+        <v>1748953</v>
+      </c>
+      <c r="E13" s="11">
+        <v>264745</v>
+      </c>
+      <c r="F13" s="11">
+        <v>1484208</v>
+      </c>
+      <c r="G13" s="11">
+        <v>14629</v>
+      </c>
+    </row>
+    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B14" s="20">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D14" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1948320</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E14" s="11">
         <v>264406</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F14" s="11">
         <v>1683914</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G14" s="11">
         <v>9009</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B14" s="21">
+    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B15" s="21">
         <v>2024</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C15" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="15">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2168647</v>
       </c>
-      <c r="E14" s="16">
+      <c r="E15" s="16">
         <v>280084</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F15" s="16">
         <v>1888563</v>
       </c>
-      <c r="G14" s="17">
+      <c r="G15" s="17">
         <v>12120.000000000002</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B15" s="20">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="20">
         <v>2023</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D16" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1749695</v>
       </c>
-      <c r="E15" s="11">
+      <c r="E16" s="11">
         <v>316288</v>
       </c>
-      <c r="F15" s="11">
+      <c r="F16" s="11">
         <v>1433407</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G16" s="11">
         <v>7904</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B16" s="18">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="18">
         <v>2023</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C17" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D17" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1844757</v>
       </c>
-      <c r="E16" s="10">
+      <c r="E17" s="10">
         <v>304849</v>
       </c>
-      <c r="F16" s="10">
+      <c r="F17" s="10">
         <v>1539908</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G17" s="12">
         <v>8389</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B17" s="20">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="20">
         <v>2023</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D18" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2133187</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E18" s="11">
         <v>381091</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F18" s="11">
         <v>1752096</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G18" s="11">
         <v>10187.000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B18" s="18">
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="18">
         <v>2023</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C19" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D19" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1902742</v>
       </c>
-      <c r="E18" s="10">
+      <c r="E19" s="10">
         <v>346769</v>
       </c>
-      <c r="F18" s="10">
+      <c r="F19" s="10">
         <v>1555973</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G19" s="12">
         <v>10107</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B19" s="20">
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="20">
         <v>2023</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C20" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D19" s="14">
+      <c r="D20" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2140119</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E20" s="11">
         <v>369054.99999999994</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F20" s="11">
         <v>1771064</v>
       </c>
-      <c r="G19" s="11">
+      <c r="G20" s="11">
         <v>10536.000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B20" s="18">
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="18">
         <v>2023</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D21" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1902610</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E21" s="10">
         <v>344578.99999999994</v>
       </c>
-      <c r="F20" s="10">
+      <c r="F21" s="10">
         <v>1558031</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G21" s="12">
         <v>10523</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B21" s="20">
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="20">
         <v>2023</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C22" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="14">
+      <c r="D22" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1963115</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E22" s="11">
         <v>359400</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F22" s="11">
         <v>1603715</v>
       </c>
-      <c r="G21" s="11">
+      <c r="G22" s="11">
         <v>10849</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B22" s="18">
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="18">
         <v>2023</v>
       </c>
-      <c r="C22" s="19" t="s">
+      <c r="C23" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D23" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1918657</v>
       </c>
-      <c r="E22" s="10">
+      <c r="E23" s="10">
         <v>395514</v>
       </c>
-      <c r="F22" s="10">
+      <c r="F23" s="10">
         <v>1523143</v>
       </c>
-      <c r="G22" s="12">
+      <c r="G23" s="12">
         <v>11783.999999999998</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B23" s="20">
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="20">
         <v>2023</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C24" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="14">
+      <c r="D24" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1655261</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E24" s="11">
         <v>310675</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F24" s="11">
         <v>1344586</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G24" s="11">
         <v>9999</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B24" s="18">
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
         <v>2023</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D25" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2203156</v>
       </c>
-      <c r="E24" s="10">
+      <c r="E25" s="10">
         <v>366452</v>
       </c>
-      <c r="F24" s="10">
+      <c r="F25" s="10">
         <v>1836704</v>
       </c>
-      <c r="G24" s="12">
+      <c r="G25" s="12">
         <v>13800</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B25" s="20">
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="20">
         <v>2023</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C26" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="14">
+      <c r="D26" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1962198</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E26" s="11">
         <v>318638</v>
       </c>
-      <c r="F25" s="11">
+      <c r="F26" s="11">
         <v>1643560</v>
       </c>
-      <c r="G25" s="11">
+      <c r="G26" s="11">
         <v>10323</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B26" s="21">
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="21">
         <v>2023</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C27" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D26" s="15">
+      <c r="D27" s="15">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2482927</v>
       </c>
-      <c r="E26" s="16">
+      <c r="E27" s="16">
         <v>333340</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F27" s="16">
         <v>2149587</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="17">
         <v>10274</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="20">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="20">
         <v>2022</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D27" s="14">
+      <c r="D28" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2131891</v>
       </c>
-      <c r="E27" s="11">
+      <c r="E28" s="11">
         <v>386592.99999999994</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F28" s="11">
         <v>1745298</v>
       </c>
-      <c r="G27" s="11">
+      <c r="G28" s="11">
         <v>11701</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B28" s="18">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B29" s="18">
         <v>2022</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C29" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D28" s="13">
+      <c r="D29" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2495531</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E29" s="10">
         <v>366438.99999999994</v>
       </c>
-      <c r="F28" s="10">
+      <c r="F29" s="10">
         <v>2129092</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="12">
         <v>9712</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="20">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B30" s="20">
         <v>2022</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D29" s="14">
+      <c r="D30" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2253847</v>
       </c>
-      <c r="E29" s="11">
+      <c r="E30" s="11">
         <v>431548</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F30" s="11">
         <v>1822299</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G30" s="11">
         <v>10263.000000000002</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="18">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B31" s="18">
         <v>2022</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="C31" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D30" s="13">
+      <c r="D31" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2338950</v>
       </c>
-      <c r="E30" s="10">
+      <c r="E31" s="10">
         <v>405234.00000000006</v>
       </c>
-      <c r="F30" s="10">
+      <c r="F31" s="10">
         <v>1933715.9999999998</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G31" s="12">
         <v>10918</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B31" s="20">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="20">
         <v>2022</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C32" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="14">
+      <c r="D32" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2378513</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E32" s="11">
         <v>439468</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F32" s="11">
         <v>1939045</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G32" s="11">
         <v>11724</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B32" s="18">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="18">
         <v>2022</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="C33" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="13">
+      <c r="D33" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2522978</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E33" s="10">
         <v>413900.00000000006</v>
       </c>
-      <c r="F32" s="10">
+      <c r="F33" s="10">
         <v>2109078</v>
       </c>
-      <c r="G32" s="12">
+      <c r="G33" s="12">
         <v>8203</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B33" s="20">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="20">
         <v>2022</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C34" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D33" s="14">
+      <c r="D34" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2220045</v>
       </c>
-      <c r="E33" s="11">
+      <c r="E34" s="11">
         <v>430406</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F34" s="11">
         <v>1789639</v>
       </c>
-      <c r="G33" s="11">
+      <c r="G34" s="11">
         <v>8649</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="18">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B35" s="18">
         <v>2022</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D34" s="13">
+      <c r="D35" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2127404</v>
       </c>
-      <c r="E34" s="10">
+      <c r="E35" s="10">
         <v>454669.99999999994</v>
       </c>
-      <c r="F34" s="10">
+      <c r="F35" s="10">
         <v>1672734</v>
       </c>
-      <c r="G34" s="12">
+      <c r="G35" s="12">
         <v>9335.9999999999982</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B35" s="20">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B36" s="20">
         <v>2022</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C36" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D35" s="14">
+      <c r="D36" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1945217</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E36" s="11">
         <v>375715.00000000006</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F36" s="11">
         <v>1569502</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G36" s="11">
         <v>8167</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B36" s="18">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B37" s="18">
         <v>2022</v>
       </c>
-      <c r="C36" s="19" t="s">
+      <c r="C37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D36" s="13">
+      <c r="D37" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5842707</v>
       </c>
-      <c r="E36" s="10">
+      <c r="E37" s="10">
         <v>400038</v>
       </c>
-      <c r="F36" s="10">
+      <c r="F37" s="10">
         <v>5442669</v>
       </c>
-      <c r="G36" s="12">
+      <c r="G37" s="12">
         <v>11977</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="20">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B38" s="20">
         <v>2022</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C38" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D37" s="14">
+      <c r="D38" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2222968</v>
       </c>
-      <c r="E37" s="11">
+      <c r="E38" s="11">
         <v>340574</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F38" s="11">
         <v>1882394</v>
       </c>
-      <c r="G37" s="11">
+      <c r="G38" s="11">
         <v>8552.9999999999982</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="21">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B39" s="21">
         <v>2022</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C39" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D38" s="15">
+      <c r="D39" s="15">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4331598</v>
       </c>
-      <c r="E38" s="16">
+      <c r="E39" s="16">
         <v>338029</v>
       </c>
-      <c r="F38" s="16">
+      <c r="F39" s="16">
         <v>3993569</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G39" s="17">
         <v>8048.9999999999991</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B39" s="20">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="20">
         <v>2021</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C40" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D40" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2389730</v>
       </c>
-      <c r="E39" s="11">
+      <c r="E40" s="11">
         <v>422491.00000000006</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F40" s="11">
         <v>1967239</v>
       </c>
-      <c r="G39" s="11">
+      <c r="G40" s="11">
         <v>14992</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B40" s="18">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="18">
         <v>2021</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C41" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D40" s="13">
+      <c r="D41" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4507577</v>
       </c>
-      <c r="E40" s="10">
+      <c r="E41" s="10">
         <v>399183.99999999994</v>
       </c>
-      <c r="F40" s="10">
+      <c r="F41" s="10">
         <v>4108393</v>
       </c>
-      <c r="G40" s="12">
+      <c r="G41" s="12">
         <v>9032</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B41" s="20">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B42" s="20">
         <v>2021</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D42" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2274216</v>
       </c>
-      <c r="E41" s="11">
+      <c r="E42" s="11">
         <v>438910</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F42" s="11">
         <v>1835306</v>
       </c>
-      <c r="G41" s="11">
+      <c r="G42" s="11">
         <v>13165</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B42" s="18">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="18">
         <v>2021</v>
       </c>
-      <c r="C42" s="19" t="s">
+      <c r="C43" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D43" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4402574</v>
       </c>
-      <c r="E42" s="10">
+      <c r="E43" s="10">
         <v>418775.00000000006</v>
       </c>
-      <c r="F42" s="10">
+      <c r="F43" s="10">
         <v>3983799</v>
       </c>
-      <c r="G42" s="12">
+      <c r="G43" s="12">
         <v>12203</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B43" s="20">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="20">
         <v>2021</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C44" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D43" s="14">
+      <c r="D44" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2410732</v>
       </c>
-      <c r="E43" s="11">
+      <c r="E44" s="11">
         <v>446412.00000000006</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F44" s="11">
         <v>1964320</v>
       </c>
-      <c r="G43" s="11">
+      <c r="G44" s="11">
         <v>10960.999999999998</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="18">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="18">
         <v>2021</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C45" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="13">
+      <c r="D45" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2462340</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E45" s="10">
         <v>431365</v>
       </c>
-      <c r="F44" s="10">
+      <c r="F45" s="10">
         <v>2030975</v>
       </c>
-      <c r="G44" s="12">
+      <c r="G45" s="12">
         <v>12962</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B45" s="20">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="20">
         <v>2021</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C46" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D45" s="14">
+      <c r="D46" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4575029</v>
       </c>
-      <c r="E45" s="11">
+      <c r="E46" s="11">
         <v>440925</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F46" s="11">
         <v>4134104</v>
       </c>
-      <c r="G45" s="11">
+      <c r="G46" s="11">
         <v>9897</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B46" s="18">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="18">
         <v>2021</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="C47" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="13">
+      <c r="D47" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2641050</v>
       </c>
-      <c r="E46" s="10">
+      <c r="E47" s="10">
         <v>464318</v>
       </c>
-      <c r="F46" s="10">
+      <c r="F47" s="10">
         <v>2176732</v>
       </c>
-      <c r="G46" s="12">
+      <c r="G47" s="12">
         <v>9161.0000000000018</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="20">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="20">
         <v>2021</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C48" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D47" s="14">
+      <c r="D48" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2488460</v>
       </c>
-      <c r="E47" s="11">
+      <c r="E48" s="11">
         <v>405025.00000000006</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F48" s="11">
         <v>2083435</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G48" s="11">
         <v>12911.999999999998</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B48" s="18">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="18">
         <v>2021</v>
       </c>
-      <c r="C48" s="19" t="s">
+      <c r="C49" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D48" s="13">
+      <c r="D49" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5493558</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E49" s="10">
         <v>436123.00000000006</v>
       </c>
-      <c r="F48" s="10">
+      <c r="F49" s="10">
         <v>5057435</v>
       </c>
-      <c r="G48" s="12">
+      <c r="G49" s="12">
         <v>11483</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="20">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="20">
         <v>2021</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C50" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D49" s="14">
+      <c r="D50" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3123513</v>
       </c>
-      <c r="E49" s="11">
+      <c r="E50" s="11">
         <v>341609.00000000006</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F50" s="11">
         <v>2781904</v>
       </c>
-      <c r="G49" s="11">
+      <c r="G50" s="11">
         <v>12219.000000000002</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="21">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="21">
         <v>2021</v>
       </c>
-      <c r="C50" s="22" t="s">
+      <c r="C51" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D50" s="15">
+      <c r="D51" s="15">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4372248</v>
       </c>
-      <c r="E50" s="16">
+      <c r="E51" s="16">
         <v>345900</v>
       </c>
-      <c r="F50" s="16">
+      <c r="F51" s="16">
         <v>4026348</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="17">
         <v>10490</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B51" s="20">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="20">
         <v>2020</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C52" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="14">
+      <c r="D52" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2852936</v>
       </c>
-      <c r="E51" s="11">
+      <c r="E52" s="11">
         <v>416851</v>
       </c>
-      <c r="F51" s="11">
+      <c r="F52" s="11">
         <v>2436085</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G52" s="11">
         <v>10868</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="18">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="18">
         <v>2020</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C53" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="13">
+      <c r="D53" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4616895</v>
       </c>
-      <c r="E52" s="10">
+      <c r="E53" s="10">
         <v>368711</v>
       </c>
-      <c r="F52" s="10">
+      <c r="F53" s="10">
         <v>4248184</v>
       </c>
-      <c r="G52" s="12">
+      <c r="G53" s="12">
         <v>10434.000000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B53" s="20">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="20">
         <v>2020</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D53" s="14">
+      <c r="D54" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2820669</v>
       </c>
-      <c r="E53" s="11">
+      <c r="E54" s="11">
         <v>428537.00000000006</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F54" s="11">
         <v>2392132</v>
       </c>
-      <c r="G53" s="11">
+      <c r="G54" s="11">
         <v>11726</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B54" s="18">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="18">
         <v>2020</v>
       </c>
-      <c r="C54" s="19" t="s">
+      <c r="C55" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D54" s="13">
+      <c r="D55" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2589982</v>
       </c>
-      <c r="E54" s="10">
+      <c r="E55" s="10">
         <v>415335</v>
       </c>
-      <c r="F54" s="10">
+      <c r="F55" s="10">
         <v>2174647</v>
       </c>
-      <c r="G54" s="12">
+      <c r="G55" s="12">
         <v>9943.9999999999982</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B55" s="20">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="20">
         <v>2020</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C56" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D55" s="14">
+      <c r="D56" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2641413</v>
       </c>
-      <c r="E55" s="11">
+      <c r="E56" s="11">
         <v>410097.00000000006</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F56" s="11">
         <v>2231316</v>
       </c>
-      <c r="G55" s="11">
+      <c r="G56" s="11">
         <v>9178</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B56" s="18">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="18">
         <v>2020</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C57" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D56" s="13">
+      <c r="D57" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4586818</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E57" s="10">
         <v>410620</v>
       </c>
-      <c r="F56" s="10">
+      <c r="F57" s="10">
         <v>4176198</v>
       </c>
-      <c r="G56" s="12">
+      <c r="G57" s="12">
         <v>8514</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B57" s="20">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="20">
         <v>2020</v>
       </c>
-      <c r="C57" s="20" t="s">
+      <c r="C58" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D57" s="14">
+      <c r="D58" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2631209</v>
       </c>
-      <c r="E57" s="11">
+      <c r="E58" s="11">
         <v>419425</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F58" s="11">
         <v>2211784</v>
       </c>
-      <c r="G57" s="11">
+      <c r="G58" s="11">
         <v>8624</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B58" s="18">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="18">
         <v>2020</v>
       </c>
-      <c r="C58" s="19" t="s">
+      <c r="C59" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D58" s="13">
+      <c r="D59" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2577474</v>
       </c>
-      <c r="E58" s="10">
+      <c r="E59" s="10">
         <v>401798</v>
       </c>
-      <c r="F58" s="10">
+      <c r="F59" s="10">
         <v>2175676</v>
       </c>
-      <c r="G58" s="12">
+      <c r="G59" s="12">
         <v>9635</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B59" s="20">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="20">
         <v>2020</v>
       </c>
-      <c r="C59" s="20" t="s">
+      <c r="C60" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D59" s="14">
+      <c r="D60" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2308615</v>
       </c>
-      <c r="E59" s="11">
+      <c r="E60" s="11">
         <v>333280</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F60" s="11">
         <v>1975335</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G60" s="11">
         <v>10094.000000000002</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="18">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="18">
         <v>2020</v>
       </c>
-      <c r="C60" s="19" t="s">
+      <c r="C61" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D60" s="13">
+      <c r="D61" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>6857420</v>
       </c>
-      <c r="E60" s="10">
+      <c r="E61" s="10">
         <v>468408</v>
       </c>
-      <c r="F60" s="10">
+      <c r="F61" s="10">
         <v>6389012</v>
       </c>
-      <c r="G60" s="12">
+      <c r="G61" s="12">
         <v>14582.999999999998</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B61" s="20">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="20">
         <v>2020</v>
       </c>
-      <c r="C61" s="20" t="s">
+      <c r="C62" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D61" s="14">
+      <c r="D62" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3008974</v>
       </c>
-      <c r="E61" s="11">
+      <c r="E62" s="11">
         <v>356550</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F62" s="11">
         <v>2652424</v>
       </c>
-      <c r="G61" s="11">
+      <c r="G62" s="11">
         <v>12825</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B62" s="21">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="21">
         <v>2020</v>
       </c>
-      <c r="C62" s="22" t="s">
+      <c r="C63" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="15">
+      <c r="D63" s="15">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5638723</v>
       </c>
-      <c r="E62" s="16">
+      <c r="E63" s="16">
         <v>355152</v>
       </c>
-      <c r="F62" s="16">
+      <c r="F63" s="16">
         <v>5283571</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="17">
         <v>17022</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B63" s="20">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B64" s="20">
         <v>2019</v>
       </c>
-      <c r="C63" s="20" t="s">
+      <c r="C64" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="14">
+      <c r="D64" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3200326</v>
       </c>
-      <c r="E63" s="11">
+      <c r="E64" s="11">
         <v>407756.99999999994</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F64" s="11">
         <v>2792569</v>
       </c>
-      <c r="G63" s="11">
+      <c r="G64" s="11">
         <v>13780.999999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="18">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B65" s="18">
         <v>2019</v>
       </c>
-      <c r="C64" s="19" t="s">
+      <c r="C65" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D65" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5164359</v>
       </c>
-      <c r="E64" s="10">
+      <c r="E65" s="10">
         <v>379206</v>
       </c>
-      <c r="F64" s="10">
+      <c r="F65" s="10">
         <v>4785153</v>
       </c>
-      <c r="G64" s="12">
+      <c r="G65" s="12">
         <v>15446</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B65" s="20">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B66" s="20">
         <v>2019</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D65" s="14">
+      <c r="D66" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5119815</v>
       </c>
-      <c r="E65" s="11">
+      <c r="E66" s="11">
         <v>448438.99999999994</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F66" s="11">
         <v>4671376</v>
       </c>
-      <c r="G65" s="11">
+      <c r="G66" s="11">
         <v>13698</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B66" s="18">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B67" s="18">
         <v>2019</v>
       </c>
-      <c r="C66" s="19" t="s">
+      <c r="C67" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="13">
+      <c r="D67" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3200598</v>
       </c>
-      <c r="E66" s="10">
+      <c r="E67" s="10">
         <v>416794</v>
       </c>
-      <c r="F66" s="10">
+      <c r="F67" s="10">
         <v>2783804</v>
       </c>
-      <c r="G66" s="12">
+      <c r="G67" s="12">
         <v>14985</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B67" s="20">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B68" s="20">
         <v>2019</v>
       </c>
-      <c r="C67" s="20" t="s">
+      <c r="C68" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="14">
+      <c r="D68" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5058319</v>
       </c>
-      <c r="E67" s="11">
+      <c r="E68" s="11">
         <v>435424</v>
       </c>
-      <c r="F67" s="11">
+      <c r="F68" s="11">
         <v>4622895</v>
       </c>
-      <c r="G67" s="11">
+      <c r="G68" s="11">
         <v>16766</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B68" s="18">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B69" s="18">
         <v>2019</v>
       </c>
-      <c r="C68" s="19" t="s">
+      <c r="C69" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D69" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3722028</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E69" s="10">
         <v>444124</v>
       </c>
-      <c r="F68" s="10">
+      <c r="F69" s="10">
         <v>3277904</v>
       </c>
-      <c r="G68" s="12">
+      <c r="G69" s="12">
         <v>19034</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B69" s="20">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B70" s="20">
         <v>2019</v>
       </c>
-      <c r="C69" s="20" t="s">
+      <c r="C70" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D69" s="14">
+      <c r="D70" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4233251</v>
       </c>
-      <c r="E69" s="11">
+      <c r="E70" s="11">
         <v>409967</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F70" s="11">
         <v>3823284</v>
       </c>
-      <c r="G69" s="11">
+      <c r="G70" s="11">
         <v>19962</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B70" s="18">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B71" s="18">
         <v>2019</v>
       </c>
-      <c r="C70" s="19" t="s">
+      <c r="C71" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D71" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4029801</v>
       </c>
-      <c r="E70" s="10">
+      <c r="E71" s="10">
         <v>467137</v>
       </c>
-      <c r="F70" s="10">
+      <c r="F71" s="10">
         <v>3562664</v>
       </c>
-      <c r="G70" s="12">
+      <c r="G71" s="12">
         <v>21576</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B71" s="20">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B72" s="20">
         <v>2019</v>
       </c>
-      <c r="C71" s="20" t="s">
+      <c r="C72" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="14">
+      <c r="D72" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4241074</v>
       </c>
-      <c r="E71" s="11">
+      <c r="E72" s="11">
         <v>405415</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F72" s="11">
         <v>3835659</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G72" s="11">
         <v>20334</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="18">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="18">
         <v>2019</v>
       </c>
-      <c r="C72" s="19" t="s">
+      <c r="C73" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D73" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3091213</v>
       </c>
-      <c r="E72" s="10">
+      <c r="E73" s="10">
         <v>391382.00000000006</v>
       </c>
-      <c r="F72" s="10">
+      <c r="F73" s="10">
         <v>2699831</v>
       </c>
-      <c r="G72" s="12">
+      <c r="G73" s="12">
         <v>21218</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="20">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="20">
         <v>2019</v>
       </c>
-      <c r="C73" s="20" t="s">
+      <c r="C74" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D73" s="14">
+      <c r="D74" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3672837</v>
       </c>
-      <c r="E73" s="11">
+      <c r="E74" s="11">
         <v>337848</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F74" s="11">
         <v>3334989</v>
       </c>
-      <c r="G73" s="11">
+      <c r="G74" s="11">
         <v>22624</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B74" s="21">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="21">
         <v>2019</v>
       </c>
-      <c r="C74" s="22" t="s">
+      <c r="C75" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="15">
+      <c r="D75" s="15">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3870104</v>
       </c>
-      <c r="E74" s="16">
+      <c r="E75" s="16">
         <v>350680</v>
       </c>
-      <c r="F74" s="16">
+      <c r="F75" s="16">
         <v>3519424</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G75" s="17">
         <v>24067</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B75" s="20">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="20">
         <v>2018</v>
       </c>
-      <c r="C75" s="20" t="s">
+      <c r="C76" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D75" s="14">
+      <c r="D76" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2979800</v>
       </c>
-      <c r="E75" s="11">
+      <c r="E76" s="11">
         <v>392300</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F76" s="11">
         <v>2587500</v>
       </c>
-      <c r="G75" s="11">
+      <c r="G76" s="11">
         <v>24300</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B76" s="18">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="18">
         <v>2018</v>
       </c>
-      <c r="C76" s="19" t="s">
+      <c r="C77" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D76" s="13">
+      <c r="D77" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4046200</v>
       </c>
-      <c r="E76" s="10">
+      <c r="E77" s="10">
         <v>395100</v>
       </c>
-      <c r="F76" s="10">
+      <c r="F77" s="10">
         <v>3651100</v>
       </c>
-      <c r="G76" s="12">
+      <c r="G77" s="12">
         <v>25200</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B77" s="20">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="20">
         <v>2018</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="14">
+      <c r="D78" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3560300</v>
       </c>
-      <c r="E77" s="11">
+      <c r="E78" s="11">
         <v>458000</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F78" s="11">
         <v>3102300</v>
       </c>
-      <c r="G77" s="11">
+      <c r="G78" s="11">
         <v>26200</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B78" s="18">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="18">
         <v>2018</v>
       </c>
-      <c r="C78" s="19" t="s">
+      <c r="C79" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D78" s="13">
+      <c r="D79" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3698500</v>
       </c>
-      <c r="E78" s="10">
+      <c r="E79" s="10">
         <v>388100</v>
       </c>
-      <c r="F78" s="10">
+      <c r="F79" s="10">
         <v>3310400</v>
       </c>
-      <c r="G78" s="12">
+      <c r="G79" s="12">
         <v>27800</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B79" s="20">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="20">
         <v>2018</v>
       </c>
-      <c r="C79" s="20" t="s">
+      <c r="C80" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="D79" s="14">
+      <c r="D80" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4356300</v>
       </c>
-      <c r="E79" s="11">
+      <c r="E80" s="11">
         <v>410200</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F80" s="11">
         <v>3946100</v>
       </c>
-      <c r="G79" s="11">
+      <c r="G80" s="11">
         <v>27600</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B80" s="18">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B81" s="18">
         <v>2018</v>
       </c>
-      <c r="C80" s="19" t="s">
+      <c r="C81" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D80" s="13">
+      <c r="D81" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3201300</v>
       </c>
-      <c r="E80" s="10">
+      <c r="E81" s="10">
         <v>440000</v>
       </c>
-      <c r="F80" s="10">
+      <c r="F81" s="10">
         <v>2761300</v>
       </c>
-      <c r="G80" s="12">
+      <c r="G81" s="12">
         <v>26300</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="20">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B82" s="20">
         <v>2018</v>
       </c>
-      <c r="C81" s="20" t="s">
+      <c r="C82" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D81" s="14">
+      <c r="D82" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4520600</v>
       </c>
-      <c r="E81" s="11">
+      <c r="E82" s="11">
         <v>453400</v>
       </c>
-      <c r="F81" s="11">
+      <c r="F82" s="11">
         <v>4067200</v>
       </c>
-      <c r="G81" s="11">
+      <c r="G82" s="11">
         <v>27000</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="18">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B83" s="18">
         <v>2018</v>
       </c>
-      <c r="C82" s="19" t="s">
+      <c r="C83" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="13">
+      <c r="D83" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3550800</v>
       </c>
-      <c r="E82" s="10">
+      <c r="E83" s="10">
         <v>495500</v>
       </c>
-      <c r="F82" s="10">
+      <c r="F83" s="10">
         <v>3055300</v>
       </c>
-      <c r="G82" s="12">
+      <c r="G83" s="12">
         <v>24500</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="20">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="20">
         <v>2018</v>
       </c>
-      <c r="C83" s="20" t="s">
+      <c r="C84" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D83" s="14">
+      <c r="D84" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4493500</v>
       </c>
-      <c r="E83" s="11">
+      <c r="E84" s="11">
         <v>406000</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F84" s="11">
         <v>4087500</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G84" s="11">
         <v>27400</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B84" s="18">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="18">
         <v>2018</v>
       </c>
-      <c r="C84" s="19" t="s">
+      <c r="C85" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="13">
+      <c r="D85" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3275600</v>
       </c>
-      <c r="E84" s="10">
+      <c r="E85" s="10">
         <v>388900</v>
       </c>
-      <c r="F84" s="10">
+      <c r="F85" s="10">
         <v>2886700</v>
       </c>
-      <c r="G84" s="12">
+      <c r="G85" s="12">
         <v>23400</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B85" s="20">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="20">
         <v>2018</v>
       </c>
-      <c r="C85" s="20" t="s">
+      <c r="C86" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D85" s="14">
+      <c r="D86" s="14">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4100900</v>
       </c>
-      <c r="E85" s="11">
+      <c r="E86" s="11">
         <v>348600</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F86" s="11">
         <v>3752300</v>
       </c>
-      <c r="G85" s="11">
+      <c r="G86" s="11">
         <v>26500</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B86" s="18">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="18">
         <v>2018</v>
       </c>
-      <c r="C86" s="19" t="s">
+      <c r="C87" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="13">
+      <c r="D87" s="13">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3724100</v>
       </c>
-      <c r="E86" s="10">
+      <c r="E87" s="10">
         <v>358200</v>
       </c>
-      <c r="F86" s="10">
+      <c r="F87" s="10">
         <v>3365900</v>
       </c>
-      <c r="G86" s="12">
+      <c r="G87" s="12">
         <v>26500</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B87" s="6" t="s">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B88" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C87" s="6"/>
-    </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B88" s="6" t="s">
+      <c r="C88" s="6"/>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B89" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="6"/>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B89" t="s">
+      <c r="C89" s="6"/>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="G90" s="3"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="D91"/>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G91" s="3"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D92"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Operaciones_telegraficas.xlsx
+++ b/Operaciones_telegraficas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35D50267-F575-47C8-B143-3F42C7F3A619}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE59CD8-4EF9-48E5-A95D-77DC408E58C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
   <si>
     <t>Total</t>
   </si>
@@ -98,13 +98,13 @@
     <t>Sep.</t>
   </si>
   <si>
-    <t>Actualización: Noviembre 2024.</t>
-  </si>
-  <si>
     <t>Servicios financieros básicos y de comunicación</t>
   </si>
   <si>
     <t>Remesas de dinero</t>
+  </si>
+  <si>
+    <t>Actualización: Diciembre 2024.</t>
   </si>
 </sst>
 </file>
@@ -476,6 +476,13 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -500,13 +507,6 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
     </dxf>
     <dxf>
       <font>
@@ -559,8 +559,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:G88" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
-  <autoFilter ref="B5:G88" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
+  <autoFilter ref="B5:G89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -804,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I93"/>
+  <dimension ref="B2:I94"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -824,7 +824,7 @@
   <sheetData>
     <row r="2" spans="2:9" ht="20.25" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="1"/>
     </row>
@@ -837,7 +837,7 @@
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4" s="27"/>
       <c r="G4" s="6"/>
@@ -863,193 +863,193 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="15">
+      <c r="B6" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="12">
+        <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
+        <v>1582422</v>
+      </c>
+      <c r="E6" s="13">
+        <v>262292.00000000006</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1320130</v>
+      </c>
+      <c r="G6" s="14">
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D7" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1673203</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E7" s="17">
         <v>264821</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F7" s="17">
         <v>1408382</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G7" s="17">
         <v>9589</v>
       </c>
-      <c r="I6" s="24"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="10">
+      <c r="I7" s="24"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="10">
         <v>2024</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D8" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1826310</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E8" s="13">
         <v>309841</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F8" s="13">
         <v>1516469</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G8" s="14">
         <v>11016</v>
       </c>
     </row>
-    <row r="8" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B8" s="15">
+    <row r="9" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B9" s="15">
         <v>2024</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C9" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D9" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1682059</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E9" s="17">
         <v>276534</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F9" s="17">
         <v>1405525</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G9" s="17">
         <v>11431</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="10">
+    <row r="10" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="10">
         <v>2024</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C10" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D10" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1896078</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E10" s="13">
         <v>309818</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F10" s="13">
         <v>1586260</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G10" s="14">
         <v>10915</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="15">
+    <row r="11" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="15">
         <v>2024</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D11" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1900404</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E11" s="17">
         <v>311727</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F11" s="17">
         <v>1588677</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G11" s="17">
         <v>10905</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B11" s="10">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B12" s="10">
         <v>2024</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D12" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1816503</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E12" s="13">
         <v>311623</v>
       </c>
-      <c r="F11" s="13">
+      <c r="F12" s="13">
         <v>1504880</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G12" s="14">
         <v>10376</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="15">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="15">
         <v>2024</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C13" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D13" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1984997</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E13" s="17">
         <v>340780.00000000006</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F13" s="17">
         <v>1644217</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G13" s="17">
         <v>10972</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="10">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="10">
         <v>2024</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D14" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1899153</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E14" s="13">
         <v>318362</v>
       </c>
-      <c r="F13" s="13">
+      <c r="F14" s="13">
         <v>1580791</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G14" s="14">
         <v>10826</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="16">
-        <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
-        <v>1748953</v>
-      </c>
-      <c r="E14" s="17">
-        <v>264745</v>
-      </c>
-      <c r="F14" s="17">
-        <v>1484208</v>
-      </c>
-      <c r="G14" s="17">
-        <v>14629</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.45">
@@ -1057,1577 +1057,1598 @@
         <v>2024</v>
       </c>
       <c r="C15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="16">
+        <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
+        <v>1748953</v>
+      </c>
+      <c r="E15" s="17">
+        <v>264745</v>
+      </c>
+      <c r="F15" s="17">
+        <v>1484208</v>
+      </c>
+      <c r="G15" s="17">
+        <v>14629</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D16" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1948320</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E16" s="17">
         <v>264406</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F16" s="17">
         <v>1683914</v>
       </c>
-      <c r="G15" s="17">
+      <c r="G16" s="17">
         <v>9009</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B16" s="19">
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="19">
         <v>2024</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2168647</v>
       </c>
-      <c r="E16" s="22">
+      <c r="E17" s="22">
         <v>280084</v>
       </c>
-      <c r="F16" s="22">
+      <c r="F17" s="22">
         <v>1888563</v>
       </c>
-      <c r="G16" s="23">
+      <c r="G17" s="23">
         <v>12120.000000000002</v>
       </c>
     </row>
-    <row r="17" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B17" s="15">
+    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="15">
         <v>2023</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C18" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="16">
+      <c r="D18" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1749695</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E18" s="17">
         <v>316288</v>
       </c>
-      <c r="F17" s="17">
+      <c r="F18" s="17">
         <v>1433407</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G18" s="17">
         <v>7904</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="10">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="10">
         <v>2023</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D19" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1844757</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E19" s="13">
         <v>304849</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F19" s="13">
         <v>1539908</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G19" s="14">
         <v>8389</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="15">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="15">
         <v>2023</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C20" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="16">
+      <c r="D20" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2133187</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E20" s="17">
         <v>381091</v>
       </c>
-      <c r="F19" s="17">
+      <c r="F20" s="17">
         <v>1752096</v>
       </c>
-      <c r="G19" s="17">
+      <c r="G20" s="17">
         <v>10187.000000000002</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="10">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="10">
         <v>2023</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D21" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1902742</v>
       </c>
-      <c r="E20" s="13">
+      <c r="E21" s="13">
         <v>346769</v>
       </c>
-      <c r="F20" s="13">
+      <c r="F21" s="13">
         <v>1555973</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G21" s="14">
         <v>10107</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="15">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="15">
         <v>2023</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C22" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="16">
+      <c r="D22" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2140119</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E22" s="17">
         <v>369054.99999999994</v>
       </c>
-      <c r="F21" s="17">
+      <c r="F22" s="17">
         <v>1771064</v>
       </c>
-      <c r="G21" s="17">
+      <c r="G22" s="17">
         <v>10536.000000000002</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="10">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="10">
         <v>2023</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D23" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1902610</v>
       </c>
-      <c r="E22" s="13">
+      <c r="E23" s="13">
         <v>344578.99999999994</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F23" s="13">
         <v>1558031</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G23" s="14">
         <v>10523</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="15">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="15">
         <v>2023</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C24" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D23" s="16">
+      <c r="D24" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1963115</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E24" s="17">
         <v>359400</v>
       </c>
-      <c r="F23" s="17">
+      <c r="F24" s="17">
         <v>1603715</v>
       </c>
-      <c r="G23" s="17">
+      <c r="G24" s="17">
         <v>10849</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="10">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="10">
         <v>2023</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D25" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1918657</v>
       </c>
-      <c r="E24" s="13">
+      <c r="E25" s="13">
         <v>395514</v>
       </c>
-      <c r="F24" s="13">
+      <c r="F25" s="13">
         <v>1523143</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G25" s="14">
         <v>11783.999999999998</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="15">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="15">
         <v>2023</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="16">
+      <c r="D26" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1655261</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E26" s="17">
         <v>310675</v>
       </c>
-      <c r="F25" s="17">
+      <c r="F26" s="17">
         <v>1344586</v>
       </c>
-      <c r="G25" s="17">
+      <c r="G26" s="17">
         <v>9999</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="10">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="10">
         <v>2023</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C27" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D27" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2203156</v>
       </c>
-      <c r="E26" s="13">
+      <c r="E27" s="13">
         <v>366452</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F27" s="13">
         <v>1836704</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G27" s="14">
         <v>13800</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="15">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="15">
         <v>2023</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="C28" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="16">
+      <c r="D28" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1962198</v>
       </c>
-      <c r="E27" s="17">
+      <c r="E28" s="17">
         <v>318638</v>
       </c>
-      <c r="F27" s="17">
+      <c r="F28" s="17">
         <v>1643560</v>
       </c>
-      <c r="G27" s="17">
+      <c r="G28" s="17">
         <v>10323</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="19">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="19">
         <v>2023</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C29" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D29" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2482927</v>
       </c>
-      <c r="E28" s="22">
+      <c r="E29" s="22">
         <v>333340</v>
       </c>
-      <c r="F28" s="22">
+      <c r="F29" s="22">
         <v>2149587</v>
       </c>
-      <c r="G28" s="23">
+      <c r="G29" s="23">
         <v>10274</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="15">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="15">
         <v>2022</v>
       </c>
-      <c r="C29" s="15" t="s">
+      <c r="C30" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="16">
+      <c r="D30" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2131891</v>
       </c>
-      <c r="E29" s="17">
+      <c r="E30" s="17">
         <v>386592.99999999994</v>
       </c>
-      <c r="F29" s="17">
+      <c r="F30" s="17">
         <v>1745298</v>
       </c>
-      <c r="G29" s="17">
+      <c r="G30" s="17">
         <v>11701</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="10">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="10">
         <v>2022</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D31" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2495531</v>
       </c>
-      <c r="E30" s="13">
+      <c r="E31" s="13">
         <v>366438.99999999994</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F31" s="13">
         <v>2129092</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G31" s="14">
         <v>9712</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="15">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="15">
         <v>2022</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C32" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D32" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2253847</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E32" s="17">
         <v>431548</v>
       </c>
-      <c r="F31" s="17">
+      <c r="F32" s="17">
         <v>1822299</v>
       </c>
-      <c r="G31" s="17">
+      <c r="G32" s="17">
         <v>10263.000000000002</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="10">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="10">
         <v>2022</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C33" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D33" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2338950</v>
       </c>
-      <c r="E32" s="13">
+      <c r="E33" s="13">
         <v>405234.00000000006</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F33" s="13">
         <v>1933715.9999999998</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G33" s="14">
         <v>10918</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="15">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="15">
         <v>2022</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C34" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="16">
+      <c r="D34" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2378513</v>
       </c>
-      <c r="E33" s="17">
+      <c r="E34" s="17">
         <v>439468</v>
       </c>
-      <c r="F33" s="17">
+      <c r="F34" s="17">
         <v>1939045</v>
       </c>
-      <c r="G33" s="17">
+      <c r="G34" s="17">
         <v>11724</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="10">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="10">
         <v>2022</v>
       </c>
-      <c r="C34" s="11" t="s">
+      <c r="C35" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D35" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2522978</v>
       </c>
-      <c r="E34" s="13">
+      <c r="E35" s="13">
         <v>413900.00000000006</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F35" s="13">
         <v>2109078</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G35" s="14">
         <v>8203</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="15">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="15">
         <v>2022</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C36" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D35" s="16">
+      <c r="D36" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2220045</v>
       </c>
-      <c r="E35" s="17">
+      <c r="E36" s="17">
         <v>430406</v>
       </c>
-      <c r="F35" s="17">
+      <c r="F36" s="17">
         <v>1789639</v>
       </c>
-      <c r="G35" s="17">
+      <c r="G36" s="17">
         <v>8649</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="10">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="10">
         <v>2022</v>
       </c>
-      <c r="C36" s="11" t="s">
+      <c r="C37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D37" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2127404</v>
       </c>
-      <c r="E36" s="13">
+      <c r="E37" s="13">
         <v>454669.99999999994</v>
       </c>
-      <c r="F36" s="13">
+      <c r="F37" s="13">
         <v>1672734</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G37" s="14">
         <v>9335.9999999999982</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="15">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="15">
         <v>2022</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C38" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D38" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1945217</v>
       </c>
-      <c r="E37" s="17">
+      <c r="E38" s="17">
         <v>375715.00000000006</v>
       </c>
-      <c r="F37" s="17">
+      <c r="F38" s="17">
         <v>1569502</v>
       </c>
-      <c r="G37" s="17">
+      <c r="G38" s="17">
         <v>8167</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="10">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="10">
         <v>2022</v>
       </c>
-      <c r="C38" s="11" t="s">
+      <c r="C39" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D39" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5842707</v>
       </c>
-      <c r="E38" s="13">
+      <c r="E39" s="13">
         <v>400038</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F39" s="13">
         <v>5442669</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G39" s="14">
         <v>11977</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="15">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="15">
         <v>2022</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C40" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D40" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2222968</v>
       </c>
-      <c r="E39" s="17">
+      <c r="E40" s="17">
         <v>340574</v>
       </c>
-      <c r="F39" s="17">
+      <c r="F40" s="17">
         <v>1882394</v>
       </c>
-      <c r="G39" s="17">
+      <c r="G40" s="17">
         <v>8552.9999999999982</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="19">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="19">
         <v>2022</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C41" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="21">
+      <c r="D41" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4331598</v>
       </c>
-      <c r="E40" s="22">
+      <c r="E41" s="22">
         <v>338029</v>
       </c>
-      <c r="F40" s="22">
+      <c r="F41" s="22">
         <v>3993569</v>
       </c>
-      <c r="G40" s="23">
+      <c r="G41" s="23">
         <v>8048.9999999999991</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="15">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="15">
         <v>2021</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C42" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="16">
+      <c r="D42" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2389730</v>
       </c>
-      <c r="E41" s="17">
+      <c r="E42" s="17">
         <v>422491.00000000006</v>
       </c>
-      <c r="F41" s="17">
+      <c r="F42" s="17">
         <v>1967239</v>
       </c>
-      <c r="G41" s="17">
+      <c r="G42" s="17">
         <v>14992</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="10">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="10">
         <v>2021</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="C43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="12">
+      <c r="D43" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4507577</v>
       </c>
-      <c r="E42" s="13">
+      <c r="E43" s="13">
         <v>399183.99999999994</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F43" s="13">
         <v>4108393</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G43" s="14">
         <v>9032</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="15">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="15">
         <v>2021</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C44" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="16">
+      <c r="D44" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2274216</v>
       </c>
-      <c r="E43" s="17">
+      <c r="E44" s="17">
         <v>438910</v>
       </c>
-      <c r="F43" s="17">
+      <c r="F44" s="17">
         <v>1835306</v>
       </c>
-      <c r="G43" s="17">
+      <c r="G44" s="17">
         <v>13165</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="10">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="10">
         <v>2021</v>
       </c>
-      <c r="C44" s="11" t="s">
+      <c r="C45" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="12">
+      <c r="D45" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4402574</v>
       </c>
-      <c r="E44" s="13">
+      <c r="E45" s="13">
         <v>418775.00000000006</v>
       </c>
-      <c r="F44" s="13">
+      <c r="F45" s="13">
         <v>3983799</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G45" s="14">
         <v>12203</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="15">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="15">
         <v>2021</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C46" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="16">
+      <c r="D46" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2410732</v>
       </c>
-      <c r="E45" s="17">
+      <c r="E46" s="17">
         <v>446412.00000000006</v>
       </c>
-      <c r="F45" s="17">
+      <c r="F46" s="17">
         <v>1964320</v>
       </c>
-      <c r="G45" s="17">
+      <c r="G46" s="17">
         <v>10960.999999999998</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="10">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="10">
         <v>2021</v>
       </c>
-      <c r="C46" s="11" t="s">
+      <c r="C47" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D47" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2462340</v>
       </c>
-      <c r="E46" s="13">
+      <c r="E47" s="13">
         <v>431365</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F47" s="13">
         <v>2030975</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G47" s="14">
         <v>12962</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="15">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="15">
         <v>2021</v>
       </c>
-      <c r="C47" s="15" t="s">
+      <c r="C48" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="16">
+      <c r="D48" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4575029</v>
       </c>
-      <c r="E47" s="17">
+      <c r="E48" s="17">
         <v>440925</v>
       </c>
-      <c r="F47" s="17">
+      <c r="F48" s="17">
         <v>4134104</v>
       </c>
-      <c r="G47" s="17">
+      <c r="G48" s="17">
         <v>9897</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="10">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="10">
         <v>2021</v>
       </c>
-      <c r="C48" s="11" t="s">
+      <c r="C49" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D49" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2641050</v>
       </c>
-      <c r="E48" s="13">
+      <c r="E49" s="13">
         <v>464318</v>
       </c>
-      <c r="F48" s="13">
+      <c r="F49" s="13">
         <v>2176732</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G49" s="14">
         <v>9161.0000000000018</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="15">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="15">
         <v>2021</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D49" s="16">
+      <c r="D50" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2488460</v>
       </c>
-      <c r="E49" s="17">
+      <c r="E50" s="17">
         <v>405025.00000000006</v>
       </c>
-      <c r="F49" s="17">
+      <c r="F50" s="17">
         <v>2083435</v>
       </c>
-      <c r="G49" s="17">
+      <c r="G50" s="17">
         <v>12911.999999999998</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="10">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="10">
         <v>2021</v>
       </c>
-      <c r="C50" s="11" t="s">
+      <c r="C51" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D51" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5493558</v>
       </c>
-      <c r="E50" s="13">
+      <c r="E51" s="13">
         <v>436123.00000000006</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F51" s="13">
         <v>5057435</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G51" s="14">
         <v>11483</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="15">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="15">
         <v>2021</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C52" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="16">
+      <c r="D52" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3123513</v>
       </c>
-      <c r="E51" s="17">
+      <c r="E52" s="17">
         <v>341609.00000000006</v>
       </c>
-      <c r="F51" s="17">
+      <c r="F52" s="17">
         <v>2781904</v>
       </c>
-      <c r="G51" s="17">
+      <c r="G52" s="17">
         <v>12219.000000000002</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="19">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="19">
         <v>2021</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C53" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="21">
+      <c r="D53" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4372248</v>
       </c>
-      <c r="E52" s="22">
+      <c r="E53" s="22">
         <v>345900</v>
       </c>
-      <c r="F52" s="22">
+      <c r="F53" s="22">
         <v>4026348</v>
       </c>
-      <c r="G52" s="23">
+      <c r="G53" s="23">
         <v>10490</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="15">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="15">
         <v>2020</v>
       </c>
-      <c r="C53" s="15" t="s">
+      <c r="C54" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="16">
+      <c r="D54" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2852936</v>
       </c>
-      <c r="E53" s="17">
+      <c r="E54" s="17">
         <v>416851</v>
       </c>
-      <c r="F53" s="17">
+      <c r="F54" s="17">
         <v>2436085</v>
       </c>
-      <c r="G53" s="17">
+      <c r="G54" s="17">
         <v>10868</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="10">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="10">
         <v>2020</v>
       </c>
-      <c r="C54" s="11" t="s">
+      <c r="C55" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="12">
+      <c r="D55" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4616895</v>
       </c>
-      <c r="E54" s="13">
+      <c r="E55" s="13">
         <v>368711</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F55" s="13">
         <v>4248184</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G55" s="14">
         <v>10434.000000000002</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="15">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="15">
         <v>2020</v>
       </c>
-      <c r="C55" s="15" t="s">
+      <c r="C56" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="16">
+      <c r="D56" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2820669</v>
       </c>
-      <c r="E55" s="17">
+      <c r="E56" s="17">
         <v>428537.00000000006</v>
       </c>
-      <c r="F55" s="17">
+      <c r="F56" s="17">
         <v>2392132</v>
       </c>
-      <c r="G55" s="17">
+      <c r="G56" s="17">
         <v>11726</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="10">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="10">
         <v>2020</v>
       </c>
-      <c r="C56" s="11" t="s">
+      <c r="C57" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D57" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2589982</v>
       </c>
-      <c r="E56" s="13">
+      <c r="E57" s="13">
         <v>415335</v>
       </c>
-      <c r="F56" s="13">
+      <c r="F57" s="13">
         <v>2174647</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G57" s="14">
         <v>9943.9999999999982</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="15">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="15">
         <v>2020</v>
       </c>
-      <c r="C57" s="15" t="s">
+      <c r="C58" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D57" s="16">
+      <c r="D58" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2641413</v>
       </c>
-      <c r="E57" s="17">
+      <c r="E58" s="17">
         <v>410097.00000000006</v>
       </c>
-      <c r="F57" s="17">
+      <c r="F58" s="17">
         <v>2231316</v>
       </c>
-      <c r="G57" s="17">
+      <c r="G58" s="17">
         <v>9178</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="10">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="10">
         <v>2020</v>
       </c>
-      <c r="C58" s="11" t="s">
+      <c r="C59" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D58" s="12">
+      <c r="D59" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4586818</v>
       </c>
-      <c r="E58" s="13">
+      <c r="E59" s="13">
         <v>410620</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F59" s="13">
         <v>4176198</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G59" s="14">
         <v>8514</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="15">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="15">
         <v>2020</v>
       </c>
-      <c r="C59" s="15" t="s">
+      <c r="C60" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D59" s="16">
+      <c r="D60" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2631209</v>
       </c>
-      <c r="E59" s="17">
+      <c r="E60" s="17">
         <v>419425</v>
       </c>
-      <c r="F59" s="17">
+      <c r="F60" s="17">
         <v>2211784</v>
       </c>
-      <c r="G59" s="17">
+      <c r="G60" s="17">
         <v>8624</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="10">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="10">
         <v>2020</v>
       </c>
-      <c r="C60" s="11" t="s">
+      <c r="C61" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D60" s="12">
+      <c r="D61" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2577474</v>
       </c>
-      <c r="E60" s="13">
+      <c r="E61" s="13">
         <v>401798</v>
       </c>
-      <c r="F60" s="13">
+      <c r="F61" s="13">
         <v>2175676</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G61" s="14">
         <v>9635</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="15">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="15">
         <v>2020</v>
       </c>
-      <c r="C61" s="15" t="s">
+      <c r="C62" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D61" s="16">
+      <c r="D62" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2308615</v>
       </c>
-      <c r="E61" s="17">
+      <c r="E62" s="17">
         <v>333280</v>
       </c>
-      <c r="F61" s="17">
+      <c r="F62" s="17">
         <v>1975335</v>
       </c>
-      <c r="G61" s="17">
+      <c r="G62" s="17">
         <v>10094.000000000002</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="10">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="10">
         <v>2020</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C63" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D63" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>6857420</v>
       </c>
-      <c r="E62" s="13">
+      <c r="E63" s="13">
         <v>468408</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F63" s="13">
         <v>6389012</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G63" s="14">
         <v>14582.999999999998</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="15">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="15">
         <v>2020</v>
       </c>
-      <c r="C63" s="15" t="s">
+      <c r="C64" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D63" s="16">
+      <c r="D64" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3008974</v>
       </c>
-      <c r="E63" s="17">
+      <c r="E64" s="17">
         <v>356550</v>
       </c>
-      <c r="F63" s="17">
+      <c r="F64" s="17">
         <v>2652424</v>
       </c>
-      <c r="G63" s="17">
+      <c r="G64" s="17">
         <v>12825</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="19">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="19">
         <v>2020</v>
       </c>
-      <c r="C64" s="20" t="s">
+      <c r="C65" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D64" s="21">
+      <c r="D65" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5638723</v>
       </c>
-      <c r="E64" s="22">
+      <c r="E65" s="22">
         <v>355152</v>
       </c>
-      <c r="F64" s="22">
+      <c r="F65" s="22">
         <v>5283571</v>
       </c>
-      <c r="G64" s="23">
+      <c r="G65" s="23">
         <v>17022</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="15">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="15">
         <v>2019</v>
       </c>
-      <c r="C65" s="15" t="s">
+      <c r="C66" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D65" s="16">
+      <c r="D66" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3200326</v>
       </c>
-      <c r="E65" s="17">
+      <c r="E66" s="17">
         <v>407756.99999999994</v>
       </c>
-      <c r="F65" s="17">
+      <c r="F66" s="17">
         <v>2792569</v>
       </c>
-      <c r="G65" s="17">
+      <c r="G66" s="17">
         <v>13780.999999999998</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="10">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="10">
         <v>2019</v>
       </c>
-      <c r="C66" s="11" t="s">
+      <c r="C67" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D67" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5164359</v>
       </c>
-      <c r="E66" s="13">
+      <c r="E67" s="13">
         <v>379206</v>
       </c>
-      <c r="F66" s="13">
+      <c r="F67" s="13">
         <v>4785153</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G67" s="14">
         <v>15446</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="15">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="15">
         <v>2019</v>
       </c>
-      <c r="C67" s="15" t="s">
+      <c r="C68" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D67" s="16">
+      <c r="D68" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5119815</v>
       </c>
-      <c r="E67" s="17">
+      <c r="E68" s="17">
         <v>448438.99999999994</v>
       </c>
-      <c r="F67" s="17">
+      <c r="F68" s="17">
         <v>4671376</v>
       </c>
-      <c r="G67" s="17">
+      <c r="G68" s="17">
         <v>13698</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="10">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="10">
         <v>2019</v>
       </c>
-      <c r="C68" s="11" t="s">
+      <c r="C69" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D69" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3200598</v>
       </c>
-      <c r="E68" s="13">
+      <c r="E69" s="13">
         <v>416794</v>
       </c>
-      <c r="F68" s="13">
+      <c r="F69" s="13">
         <v>2783804</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G69" s="14">
         <v>14985</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="15">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="15">
         <v>2019</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D69" s="16">
+      <c r="D70" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5058319</v>
       </c>
-      <c r="E69" s="17">
+      <c r="E70" s="17">
         <v>435424</v>
       </c>
-      <c r="F69" s="17">
+      <c r="F70" s="17">
         <v>4622895</v>
       </c>
-      <c r="G69" s="17">
+      <c r="G70" s="17">
         <v>16766</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="10">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="10">
         <v>2019</v>
       </c>
-      <c r="C70" s="11" t="s">
+      <c r="C71" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D70" s="12">
+      <c r="D71" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3722028</v>
       </c>
-      <c r="E70" s="13">
+      <c r="E71" s="13">
         <v>444124</v>
       </c>
-      <c r="F70" s="13">
+      <c r="F71" s="13">
         <v>3277904</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G71" s="14">
         <v>19034</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="15">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="15">
         <v>2019</v>
       </c>
-      <c r="C71" s="15" t="s">
+      <c r="C72" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D71" s="16">
+      <c r="D72" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4233251</v>
       </c>
-      <c r="E71" s="17">
+      <c r="E72" s="17">
         <v>409967</v>
       </c>
-      <c r="F71" s="17">
+      <c r="F72" s="17">
         <v>3823284</v>
       </c>
-      <c r="G71" s="17">
+      <c r="G72" s="17">
         <v>19962</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="10">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="10">
         <v>2019</v>
       </c>
-      <c r="C72" s="11" t="s">
+      <c r="C73" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D72" s="12">
+      <c r="D73" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4029801</v>
       </c>
-      <c r="E72" s="13">
+      <c r="E73" s="13">
         <v>467137</v>
       </c>
-      <c r="F72" s="13">
+      <c r="F73" s="13">
         <v>3562664</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G73" s="14">
         <v>21576</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="15">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="15">
         <v>2019</v>
       </c>
-      <c r="C73" s="15" t="s">
+      <c r="C74" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D73" s="16">
+      <c r="D74" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4241074</v>
       </c>
-      <c r="E73" s="17">
+      <c r="E74" s="17">
         <v>405415</v>
       </c>
-      <c r="F73" s="17">
+      <c r="F74" s="17">
         <v>3835659</v>
       </c>
-      <c r="G73" s="17">
+      <c r="G74" s="17">
         <v>20334</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="10">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="10">
         <v>2019</v>
       </c>
-      <c r="C74" s="11" t="s">
+      <c r="C75" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D75" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3091213</v>
       </c>
-      <c r="E74" s="13">
+      <c r="E75" s="13">
         <v>391382.00000000006</v>
       </c>
-      <c r="F74" s="13">
+      <c r="F75" s="13">
         <v>2699831</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G75" s="14">
         <v>21218</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="15">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="15">
         <v>2019</v>
       </c>
-      <c r="C75" s="15" t="s">
+      <c r="C76" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D75" s="16">
+      <c r="D76" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3672837</v>
       </c>
-      <c r="E75" s="17">
+      <c r="E76" s="17">
         <v>337848</v>
       </c>
-      <c r="F75" s="17">
+      <c r="F76" s="17">
         <v>3334989</v>
       </c>
-      <c r="G75" s="17">
+      <c r="G76" s="17">
         <v>22624</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="19">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="19">
         <v>2019</v>
       </c>
-      <c r="C76" s="20" t="s">
+      <c r="C77" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D76" s="21">
+      <c r="D77" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3870104</v>
       </c>
-      <c r="E76" s="22">
+      <c r="E77" s="22">
         <v>350680</v>
       </c>
-      <c r="F76" s="22">
+      <c r="F77" s="22">
         <v>3519424</v>
       </c>
-      <c r="G76" s="23">
+      <c r="G77" s="23">
         <v>24067</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="15">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="15">
         <v>2018</v>
       </c>
-      <c r="C77" s="15" t="s">
+      <c r="C78" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D77" s="16">
+      <c r="D78" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2979800</v>
       </c>
-      <c r="E77" s="17">
+      <c r="E78" s="17">
         <v>392300</v>
       </c>
-      <c r="F77" s="17">
+      <c r="F78" s="17">
         <v>2587500</v>
       </c>
-      <c r="G77" s="17">
+      <c r="G78" s="17">
         <v>24300</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="10">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="10">
         <v>2018</v>
       </c>
-      <c r="C78" s="11" t="s">
+      <c r="C79" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D79" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4046200</v>
       </c>
-      <c r="E78" s="13">
+      <c r="E79" s="13">
         <v>395100</v>
       </c>
-      <c r="F78" s="13">
+      <c r="F79" s="13">
         <v>3651100</v>
       </c>
-      <c r="G78" s="14">
+      <c r="G79" s="14">
         <v>25200</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="15">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="15">
         <v>2018</v>
       </c>
-      <c r="C79" s="15" t="s">
+      <c r="C80" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="16">
+      <c r="D80" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3560300</v>
       </c>
-      <c r="E79" s="17">
+      <c r="E80" s="17">
         <v>458000</v>
       </c>
-      <c r="F79" s="17">
+      <c r="F80" s="17">
         <v>3102300</v>
       </c>
-      <c r="G79" s="17">
+      <c r="G80" s="17">
         <v>26200</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="10">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="10">
         <v>2018</v>
       </c>
-      <c r="C80" s="11" t="s">
+      <c r="C81" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D81" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3698500</v>
       </c>
-      <c r="E80" s="13">
+      <c r="E81" s="13">
         <v>388100</v>
       </c>
-      <c r="F80" s="13">
+      <c r="F81" s="13">
         <v>3310400</v>
       </c>
-      <c r="G80" s="14">
+      <c r="G81" s="14">
         <v>27800</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="15">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="15">
         <v>2018</v>
       </c>
-      <c r="C81" s="15" t="s">
+      <c r="C82" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D81" s="16">
+      <c r="D82" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4356300</v>
       </c>
-      <c r="E81" s="17">
+      <c r="E82" s="17">
         <v>410200</v>
       </c>
-      <c r="F81" s="17">
+      <c r="F82" s="17">
         <v>3946100</v>
       </c>
-      <c r="G81" s="17">
+      <c r="G82" s="17">
         <v>27600</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="10">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="10">
         <v>2018</v>
       </c>
-      <c r="C82" s="11" t="s">
+      <c r="C83" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D82" s="12">
+      <c r="D83" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3201300</v>
       </c>
-      <c r="E82" s="13">
+      <c r="E83" s="13">
         <v>440000</v>
       </c>
-      <c r="F82" s="13">
+      <c r="F83" s="13">
         <v>2761300</v>
       </c>
-      <c r="G82" s="14">
+      <c r="G83" s="14">
         <v>26300</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="15">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="15">
         <v>2018</v>
       </c>
-      <c r="C83" s="15" t="s">
+      <c r="C84" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D83" s="16">
+      <c r="D84" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4520600</v>
       </c>
-      <c r="E83" s="17">
+      <c r="E84" s="17">
         <v>453400</v>
       </c>
-      <c r="F83" s="17">
+      <c r="F84" s="17">
         <v>4067200</v>
       </c>
-      <c r="G83" s="17">
+      <c r="G84" s="17">
         <v>27000</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="10">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="10">
         <v>2018</v>
       </c>
-      <c r="C84" s="11" t="s">
+      <c r="C85" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D85" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3550800</v>
       </c>
-      <c r="E84" s="13">
+      <c r="E85" s="13">
         <v>495500</v>
       </c>
-      <c r="F84" s="13">
+      <c r="F85" s="13">
         <v>3055300</v>
       </c>
-      <c r="G84" s="14">
+      <c r="G85" s="14">
         <v>24500</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="15">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="15">
         <v>2018</v>
       </c>
-      <c r="C85" s="15" t="s">
+      <c r="C86" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D85" s="16">
+      <c r="D86" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4493500</v>
       </c>
-      <c r="E85" s="17">
+      <c r="E86" s="17">
         <v>406000</v>
       </c>
-      <c r="F85" s="17">
+      <c r="F86" s="17">
         <v>4087500</v>
       </c>
-      <c r="G85" s="17">
+      <c r="G86" s="17">
         <v>27400</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="10">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="10">
         <v>2018</v>
       </c>
-      <c r="C86" s="11" t="s">
+      <c r="C87" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D86" s="12">
+      <c r="D87" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3275600</v>
       </c>
-      <c r="E86" s="13">
+      <c r="E87" s="13">
         <v>388900</v>
       </c>
-      <c r="F86" s="13">
+      <c r="F87" s="13">
         <v>2886700</v>
       </c>
-      <c r="G86" s="14">
+      <c r="G87" s="14">
         <v>23400</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="15">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="15">
         <v>2018</v>
       </c>
-      <c r="C87" s="15" t="s">
+      <c r="C88" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D87" s="16">
+      <c r="D88" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4100900</v>
       </c>
-      <c r="E87" s="17">
+      <c r="E88" s="17">
         <v>348600</v>
       </c>
-      <c r="F87" s="17">
+      <c r="F88" s="17">
         <v>3752300</v>
       </c>
-      <c r="G87" s="17">
+      <c r="G88" s="17">
         <v>26500</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="10">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="10">
         <v>2018</v>
       </c>
-      <c r="C88" s="11" t="s">
+      <c r="C89" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D88" s="12">
+      <c r="D89" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3724100</v>
       </c>
-      <c r="E88" s="13">
+      <c r="E89" s="13">
         <v>358200</v>
       </c>
-      <c r="F88" s="13">
+      <c r="F89" s="13">
         <v>3365900</v>
       </c>
-      <c r="G88" s="14">
+      <c r="G89" s="14">
         <v>26500</v>
       </c>
-    </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B89" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="C89" s="24"/>
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B90" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90" s="24"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B91" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C90" s="24"/>
-    </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B91" s="3" t="s">
+      <c r="C91" s="24"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B92" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G92" s="25"/>
-    </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D93" s="3"/>
+      <c r="G93" s="25"/>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D94" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Operaciones_telegraficas.xlsx
+++ b/Operaciones_telegraficas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\neczar.lopez\Desktop\Archivos de Descarga\4-Comunicaciones\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\1_Archivos de Descarga\4-Comunicaciones\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE59CD8-4EF9-48E5-A95D-77DC408E58C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A048ECBA-066A-47D7-AA12-A47A91118D5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{0E2BD341-398A-4B24-B56F-4436B15DBCB0}"/>
   </bookViews>
   <sheets>
     <sheet name="C_49" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="23">
   <si>
     <t>Total</t>
   </si>
@@ -104,7 +104,7 @@
     <t>Remesas de dinero</t>
   </si>
   <si>
-    <t>Actualización: Diciembre 2024.</t>
+    <t>Actualización: Enero 2025.</t>
   </si>
 </sst>
 </file>
@@ -189,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -289,12 +289,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -372,6 +383,13 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -476,13 +494,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -507,6 +518,13 @@
         <charset val="1"/>
         <scheme val="none"/>
       </font>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -559,8 +577,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:G89" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8" headerRowBorderDxfId="6" tableBorderDxfId="7">
-  <autoFilter ref="B5:G89" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}" name="Tabla3" displayName="Tabla3" ref="B5:G90" totalsRowShown="0" headerRowDxfId="9" dataDxfId="7" headerRowBorderDxfId="8" tableBorderDxfId="6">
+  <autoFilter ref="B5:G90" xr:uid="{FEBF6BC0-C5B6-4501-9AA2-37C856F02742}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024"/>
@@ -804,7 +822,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64A61087-FC86-4AE4-BFEE-FD91D684B46D}">
-  <dimension ref="B2:I94"/>
+  <dimension ref="B2:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
@@ -863,214 +881,214 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B6" s="10">
+      <c r="B6" s="28">
+        <v>2025</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="29">
+        <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
+        <v>1979295</v>
+      </c>
+      <c r="E6" s="30">
+        <v>239159</v>
+      </c>
+      <c r="F6" s="30">
+        <v>1740136</v>
+      </c>
+      <c r="G6" s="30">
+        <v>12405.000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B7" s="10">
         <v>2024</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D7" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1582422</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E7" s="13">
         <v>262292.00000000006</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F7" s="13">
         <v>1320130</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G7" s="14">
         <v>10800</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B7" s="15">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B8" s="15">
         <v>2024</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D8" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1673203</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E8" s="17">
         <v>264821</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F8" s="17">
         <v>1408382</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G8" s="17">
         <v>9589</v>
       </c>
-      <c r="I7" s="24"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B8" s="10">
+      <c r="I8" s="24"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B9" s="10">
         <v>2024</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D9" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1826310</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E9" s="13">
         <v>309841</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F9" s="13">
         <v>1516469</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G9" s="14">
         <v>11016</v>
       </c>
     </row>
-    <row r="9" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B9" s="15">
+    <row r="10" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B10" s="15">
         <v>2024</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C10" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D10" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1682059</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E10" s="17">
         <v>276534</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F10" s="17">
         <v>1405525</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G10" s="17">
         <v>11431</v>
       </c>
     </row>
-    <row r="10" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B10" s="10">
+    <row r="11" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="10">
         <v>2024</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D11" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1896078</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E11" s="13">
         <v>309818</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F11" s="13">
         <v>1586260</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G11" s="14">
         <v>10915</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="B11" s="15">
+    <row r="12" spans="2:9" s="18" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="B12" s="15">
         <v>2024</v>
       </c>
-      <c r="C11" s="15" t="s">
+      <c r="C12" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D12" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1900404</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E12" s="17">
         <v>311727</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F12" s="17">
         <v>1588677</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G12" s="17">
         <v>10905</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B12" s="10">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B13" s="10">
         <v>2024</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C13" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D13" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1816503</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E13" s="13">
         <v>311623</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F13" s="13">
         <v>1504880</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G13" s="14">
         <v>10376</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B13" s="15">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B14" s="15">
         <v>2024</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D14" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1984997</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E14" s="17">
         <v>340780.00000000006</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F14" s="17">
         <v>1644217</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G14" s="17">
         <v>10972</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B14" s="10">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+      <c r="B15" s="10">
         <v>2024</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C15" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D15" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1899153</v>
       </c>
-      <c r="E14" s="13">
+      <c r="E15" s="13">
         <v>318362</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F15" s="13">
         <v>1580791</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G15" s="14">
         <v>10826</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="15">
-        <v>2024</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D15" s="16">
-        <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
-        <v>1748953</v>
-      </c>
-      <c r="E15" s="17">
-        <v>264745</v>
-      </c>
-      <c r="F15" s="17">
-        <v>1484208</v>
-      </c>
-      <c r="G15" s="17">
-        <v>14629</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.45">
@@ -1078,1577 +1096,1598 @@
         <v>2024</v>
       </c>
       <c r="C16" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="16">
+        <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
+        <v>1748953</v>
+      </c>
+      <c r="E16" s="17">
+        <v>264745</v>
+      </c>
+      <c r="F16" s="17">
+        <v>1484208</v>
+      </c>
+      <c r="G16" s="17">
+        <v>14629</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="15">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D17" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1948320</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E17" s="17">
         <v>264406</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F17" s="17">
         <v>1683914</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G17" s="17">
         <v>9009</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B17" s="19">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="19">
         <v>2024</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C18" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="21">
+      <c r="D18" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2168647</v>
       </c>
-      <c r="E17" s="22">
+      <c r="E18" s="22">
         <v>280084</v>
       </c>
-      <c r="F17" s="22">
+      <c r="F18" s="22">
         <v>1888563</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G18" s="23">
         <v>12120.000000000002</v>
       </c>
     </row>
-    <row r="18" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B18" s="15">
+    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="15">
         <v>2023</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D19" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1749695</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E19" s="17">
         <v>316288</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F19" s="17">
         <v>1433407</v>
       </c>
-      <c r="G18" s="17">
+      <c r="G19" s="17">
         <v>7904</v>
       </c>
     </row>
-    <row r="19" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="10">
+    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="10">
         <v>2023</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D20" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1844757</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E20" s="13">
         <v>304849</v>
       </c>
-      <c r="F19" s="13">
+      <c r="F20" s="13">
         <v>1539908</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G20" s="14">
         <v>8389</v>
       </c>
     </row>
-    <row r="20" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B20" s="15">
+    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B21" s="15">
         <v>2023</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C21" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="16">
+      <c r="D21" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2133187</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E21" s="17">
         <v>381091</v>
       </c>
-      <c r="F20" s="17">
+      <c r="F21" s="17">
         <v>1752096</v>
       </c>
-      <c r="G20" s="17">
+      <c r="G21" s="17">
         <v>10187.000000000002</v>
       </c>
     </row>
-    <row r="21" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B21" s="10">
+    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B22" s="10">
         <v>2023</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D22" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1902742</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E22" s="13">
         <v>346769</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F22" s="13">
         <v>1555973</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G22" s="14">
         <v>10107</v>
       </c>
     </row>
-    <row r="22" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B22" s="15">
+    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="15">
         <v>2023</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C23" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="16">
+      <c r="D23" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2140119</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E23" s="17">
         <v>369054.99999999994</v>
       </c>
-      <c r="F22" s="17">
+      <c r="F23" s="17">
         <v>1771064</v>
       </c>
-      <c r="G22" s="17">
+      <c r="G23" s="17">
         <v>10536.000000000002</v>
       </c>
     </row>
-    <row r="23" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B23" s="10">
+    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="10">
         <v>2023</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D24" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1902610</v>
       </c>
-      <c r="E23" s="13">
+      <c r="E24" s="13">
         <v>344578.99999999994</v>
       </c>
-      <c r="F23" s="13">
+      <c r="F24" s="13">
         <v>1558031</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G24" s="14">
         <v>10523</v>
       </c>
     </row>
-    <row r="24" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B24" s="15">
+    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="15">
         <v>2023</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C25" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D24" s="16">
+      <c r="D25" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1963115</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E25" s="17">
         <v>359400</v>
       </c>
-      <c r="F24" s="17">
+      <c r="F25" s="17">
         <v>1603715</v>
       </c>
-      <c r="G24" s="17">
+      <c r="G25" s="17">
         <v>10849</v>
       </c>
     </row>
-    <row r="25" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="10">
+    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B26" s="10">
         <v>2023</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C26" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D26" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1918657</v>
       </c>
-      <c r="E25" s="13">
+      <c r="E26" s="13">
         <v>395514</v>
       </c>
-      <c r="F25" s="13">
+      <c r="F26" s="13">
         <v>1523143</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G26" s="14">
         <v>11783.999999999998</v>
       </c>
     </row>
-    <row r="26" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B26" s="15">
+    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B27" s="15">
         <v>2023</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C27" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D27" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1655261</v>
       </c>
-      <c r="E26" s="17">
+      <c r="E27" s="17">
         <v>310675</v>
       </c>
-      <c r="F26" s="17">
+      <c r="F27" s="17">
         <v>1344586</v>
       </c>
-      <c r="G26" s="17">
+      <c r="G27" s="17">
         <v>9999</v>
       </c>
     </row>
-    <row r="27" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B27" s="10">
+    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B28" s="10">
         <v>2023</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C28" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D28" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2203156</v>
       </c>
-      <c r="E27" s="13">
+      <c r="E28" s="13">
         <v>366452</v>
       </c>
-      <c r="F27" s="13">
+      <c r="F28" s="13">
         <v>1836704</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G28" s="14">
         <v>13800</v>
       </c>
     </row>
-    <row r="28" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B28" s="15">
+    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B29" s="15">
         <v>2023</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="C29" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D28" s="16">
+      <c r="D29" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1962198</v>
       </c>
-      <c r="E28" s="17">
+      <c r="E29" s="17">
         <v>318638</v>
       </c>
-      <c r="F28" s="17">
+      <c r="F29" s="17">
         <v>1643560</v>
       </c>
-      <c r="G28" s="17">
+      <c r="G29" s="17">
         <v>10323</v>
       </c>
     </row>
-    <row r="29" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B29" s="19">
+    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="19">
         <v>2023</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C30" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D30" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2482927</v>
       </c>
-      <c r="E29" s="22">
+      <c r="E30" s="22">
         <v>333340</v>
       </c>
-      <c r="F29" s="22">
+      <c r="F30" s="22">
         <v>2149587</v>
       </c>
-      <c r="G29" s="23">
+      <c r="G30" s="23">
         <v>10274</v>
       </c>
     </row>
-    <row r="30" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="15">
+    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B31" s="15">
         <v>2022</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C31" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="16">
+      <c r="D31" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2131891</v>
       </c>
-      <c r="E30" s="17">
+      <c r="E31" s="17">
         <v>386592.99999999994</v>
       </c>
-      <c r="F30" s="17">
+      <c r="F31" s="17">
         <v>1745298</v>
       </c>
-      <c r="G30" s="17">
+      <c r="G31" s="17">
         <v>11701</v>
       </c>
     </row>
-    <row r="31" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B31" s="10">
+    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B32" s="10">
         <v>2022</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D32" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2495531</v>
       </c>
-      <c r="E31" s="13">
+      <c r="E32" s="13">
         <v>366438.99999999994</v>
       </c>
-      <c r="F31" s="13">
+      <c r="F32" s="13">
         <v>2129092</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G32" s="14">
         <v>9712</v>
       </c>
     </row>
-    <row r="32" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B32" s="15">
+    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B33" s="15">
         <v>2022</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C33" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D33" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2253847</v>
       </c>
-      <c r="E32" s="17">
+      <c r="E33" s="17">
         <v>431548</v>
       </c>
-      <c r="F32" s="17">
+      <c r="F33" s="17">
         <v>1822299</v>
       </c>
-      <c r="G32" s="17">
+      <c r="G33" s="17">
         <v>10263.000000000002</v>
       </c>
     </row>
-    <row r="33" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B33" s="10">
+    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B34" s="10">
         <v>2022</v>
       </c>
-      <c r="C33" s="11" t="s">
+      <c r="C34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D34" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2338950</v>
       </c>
-      <c r="E33" s="13">
+      <c r="E34" s="13">
         <v>405234.00000000006</v>
       </c>
-      <c r="F33" s="13">
+      <c r="F34" s="13">
         <v>1933715.9999999998</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G34" s="14">
         <v>10918</v>
       </c>
     </row>
-    <row r="34" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B34" s="15">
+    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B35" s="15">
         <v>2022</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C35" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="16">
+      <c r="D35" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2378513</v>
       </c>
-      <c r="E34" s="17">
+      <c r="E35" s="17">
         <v>439468</v>
       </c>
-      <c r="F34" s="17">
+      <c r="F35" s="17">
         <v>1939045</v>
       </c>
-      <c r="G34" s="17">
+      <c r="G35" s="17">
         <v>11724</v>
       </c>
     </row>
-    <row r="35" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B35" s="10">
+    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B36" s="10">
         <v>2022</v>
       </c>
-      <c r="C35" s="11" t="s">
+      <c r="C36" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D36" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2522978</v>
       </c>
-      <c r="E35" s="13">
+      <c r="E36" s="13">
         <v>413900.00000000006</v>
       </c>
-      <c r="F35" s="13">
+      <c r="F36" s="13">
         <v>2109078</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G36" s="14">
         <v>8203</v>
       </c>
     </row>
-    <row r="36" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B36" s="15">
+    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="15">
         <v>2022</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C37" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D36" s="16">
+      <c r="D37" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2220045</v>
       </c>
-      <c r="E36" s="17">
+      <c r="E37" s="17">
         <v>430406</v>
       </c>
-      <c r="F36" s="17">
+      <c r="F37" s="17">
         <v>1789639</v>
       </c>
-      <c r="G36" s="17">
+      <c r="G37" s="17">
         <v>8649</v>
       </c>
     </row>
-    <row r="37" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B37" s="10">
+    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B38" s="10">
         <v>2022</v>
       </c>
-      <c r="C37" s="11" t="s">
+      <c r="C38" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D38" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2127404</v>
       </c>
-      <c r="E37" s="13">
+      <c r="E38" s="13">
         <v>454669.99999999994</v>
       </c>
-      <c r="F37" s="13">
+      <c r="F38" s="13">
         <v>1672734</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G38" s="14">
         <v>9335.9999999999982</v>
       </c>
     </row>
-    <row r="38" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B38" s="15">
+    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B39" s="15">
         <v>2022</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C39" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D39" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>1945217</v>
       </c>
-      <c r="E38" s="17">
+      <c r="E39" s="17">
         <v>375715.00000000006</v>
       </c>
-      <c r="F38" s="17">
+      <c r="F39" s="17">
         <v>1569502</v>
       </c>
-      <c r="G38" s="17">
+      <c r="G39" s="17">
         <v>8167</v>
       </c>
     </row>
-    <row r="39" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B39" s="10">
+    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B40" s="10">
         <v>2022</v>
       </c>
-      <c r="C39" s="11" t="s">
+      <c r="C40" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D40" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5842707</v>
       </c>
-      <c r="E39" s="13">
+      <c r="E40" s="13">
         <v>400038</v>
       </c>
-      <c r="F39" s="13">
+      <c r="F40" s="13">
         <v>5442669</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G40" s="14">
         <v>11977</v>
       </c>
     </row>
-    <row r="40" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B40" s="15">
+    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B41" s="15">
         <v>2022</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C41" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D40" s="16">
+      <c r="D41" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2222968</v>
       </c>
-      <c r="E40" s="17">
+      <c r="E41" s="17">
         <v>340574</v>
       </c>
-      <c r="F40" s="17">
+      <c r="F41" s="17">
         <v>1882394</v>
       </c>
-      <c r="G40" s="17">
+      <c r="G41" s="17">
         <v>8552.9999999999982</v>
       </c>
     </row>
-    <row r="41" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="19">
+    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B42" s="19">
         <v>2022</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C42" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D41" s="21">
+      <c r="D42" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4331598</v>
       </c>
-      <c r="E41" s="22">
+      <c r="E42" s="22">
         <v>338029</v>
       </c>
-      <c r="F41" s="22">
+      <c r="F42" s="22">
         <v>3993569</v>
       </c>
-      <c r="G41" s="23">
+      <c r="G42" s="23">
         <v>8048.9999999999991</v>
       </c>
     </row>
-    <row r="42" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="15">
+    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B43" s="15">
         <v>2021</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C43" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D42" s="16">
+      <c r="D43" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2389730</v>
       </c>
-      <c r="E42" s="17">
+      <c r="E43" s="17">
         <v>422491.00000000006</v>
       </c>
-      <c r="F42" s="17">
+      <c r="F43" s="17">
         <v>1967239</v>
       </c>
-      <c r="G42" s="17">
+      <c r="G43" s="17">
         <v>14992</v>
       </c>
     </row>
-    <row r="43" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B43" s="10">
+    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B44" s="10">
         <v>2021</v>
       </c>
-      <c r="C43" s="11" t="s">
+      <c r="C44" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D44" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4507577</v>
       </c>
-      <c r="E43" s="13">
+      <c r="E44" s="13">
         <v>399183.99999999994</v>
       </c>
-      <c r="F43" s="13">
+      <c r="F44" s="13">
         <v>4108393</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G44" s="14">
         <v>9032</v>
       </c>
     </row>
-    <row r="44" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B44" s="15">
+    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B45" s="15">
         <v>2021</v>
       </c>
-      <c r="C44" s="15" t="s">
+      <c r="C45" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D44" s="16">
+      <c r="D45" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2274216</v>
       </c>
-      <c r="E44" s="17">
+      <c r="E45" s="17">
         <v>438910</v>
       </c>
-      <c r="F44" s="17">
+      <c r="F45" s="17">
         <v>1835306</v>
       </c>
-      <c r="G44" s="17">
+      <c r="G45" s="17">
         <v>13165</v>
       </c>
     </row>
-    <row r="45" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B45" s="10">
+    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B46" s="10">
         <v>2021</v>
       </c>
-      <c r="C45" s="11" t="s">
+      <c r="C46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D46" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4402574</v>
       </c>
-      <c r="E45" s="13">
+      <c r="E46" s="13">
         <v>418775.00000000006</v>
       </c>
-      <c r="F45" s="13">
+      <c r="F46" s="13">
         <v>3983799</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G46" s="14">
         <v>12203</v>
       </c>
     </row>
-    <row r="46" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B46" s="15">
+    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B47" s="15">
         <v>2021</v>
       </c>
-      <c r="C46" s="15" t="s">
+      <c r="C47" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="16">
+      <c r="D47" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2410732</v>
       </c>
-      <c r="E46" s="17">
+      <c r="E47" s="17">
         <v>446412.00000000006</v>
       </c>
-      <c r="F46" s="17">
+      <c r="F47" s="17">
         <v>1964320</v>
       </c>
-      <c r="G46" s="17">
+      <c r="G47" s="17">
         <v>10960.999999999998</v>
       </c>
     </row>
-    <row r="47" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B47" s="10">
+    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B48" s="10">
         <v>2021</v>
       </c>
-      <c r="C47" s="11" t="s">
+      <c r="C48" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D48" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2462340</v>
       </c>
-      <c r="E47" s="13">
+      <c r="E48" s="13">
         <v>431365</v>
       </c>
-      <c r="F47" s="13">
+      <c r="F48" s="13">
         <v>2030975</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G48" s="14">
         <v>12962</v>
       </c>
     </row>
-    <row r="48" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B48" s="15">
+    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="15">
         <v>2021</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C49" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="16">
+      <c r="D49" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4575029</v>
       </c>
-      <c r="E48" s="17">
+      <c r="E49" s="17">
         <v>440925</v>
       </c>
-      <c r="F48" s="17">
+      <c r="F49" s="17">
         <v>4134104</v>
       </c>
-      <c r="G48" s="17">
+      <c r="G49" s="17">
         <v>9897</v>
       </c>
     </row>
-    <row r="49" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B49" s="10">
+    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B50" s="10">
         <v>2021</v>
       </c>
-      <c r="C49" s="11" t="s">
+      <c r="C50" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D49" s="12">
+      <c r="D50" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2641050</v>
       </c>
-      <c r="E49" s="13">
+      <c r="E50" s="13">
         <v>464318</v>
       </c>
-      <c r="F49" s="13">
+      <c r="F50" s="13">
         <v>2176732</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G50" s="14">
         <v>9161.0000000000018</v>
       </c>
     </row>
-    <row r="50" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B50" s="15">
+    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B51" s="15">
         <v>2021</v>
       </c>
-      <c r="C50" s="15" t="s">
+      <c r="C51" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D50" s="16">
+      <c r="D51" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2488460</v>
       </c>
-      <c r="E50" s="17">
+      <c r="E51" s="17">
         <v>405025.00000000006</v>
       </c>
-      <c r="F50" s="17">
+      <c r="F51" s="17">
         <v>2083435</v>
       </c>
-      <c r="G50" s="17">
+      <c r="G51" s="17">
         <v>12911.999999999998</v>
       </c>
     </row>
-    <row r="51" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B51" s="10">
+    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B52" s="10">
         <v>2021</v>
       </c>
-      <c r="C51" s="11" t="s">
+      <c r="C52" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D52" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5493558</v>
       </c>
-      <c r="E51" s="13">
+      <c r="E52" s="13">
         <v>436123.00000000006</v>
       </c>
-      <c r="F51" s="13">
+      <c r="F52" s="13">
         <v>5057435</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G52" s="14">
         <v>11483</v>
       </c>
     </row>
-    <row r="52" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B52" s="15">
+    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B53" s="15">
         <v>2021</v>
       </c>
-      <c r="C52" s="15" t="s">
+      <c r="C53" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D52" s="16">
+      <c r="D53" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3123513</v>
       </c>
-      <c r="E52" s="17">
+      <c r="E53" s="17">
         <v>341609.00000000006</v>
       </c>
-      <c r="F52" s="17">
+      <c r="F53" s="17">
         <v>2781904</v>
       </c>
-      <c r="G52" s="17">
+      <c r="G53" s="17">
         <v>12219.000000000002</v>
       </c>
     </row>
-    <row r="53" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B53" s="19">
+    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B54" s="19">
         <v>2021</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C54" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D53" s="21">
+      <c r="D54" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4372248</v>
       </c>
-      <c r="E53" s="22">
+      <c r="E54" s="22">
         <v>345900</v>
       </c>
-      <c r="F53" s="22">
+      <c r="F54" s="22">
         <v>4026348</v>
       </c>
-      <c r="G53" s="23">
+      <c r="G54" s="23">
         <v>10490</v>
       </c>
     </row>
-    <row r="54" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B54" s="15">
+    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B55" s="15">
         <v>2020</v>
       </c>
-      <c r="C54" s="15" t="s">
+      <c r="C55" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D54" s="16">
+      <c r="D55" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2852936</v>
       </c>
-      <c r="E54" s="17">
+      <c r="E55" s="17">
         <v>416851</v>
       </c>
-      <c r="F54" s="17">
+      <c r="F55" s="17">
         <v>2436085</v>
       </c>
-      <c r="G54" s="17">
+      <c r="G55" s="17">
         <v>10868</v>
       </c>
     </row>
-    <row r="55" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B55" s="10">
+    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B56" s="10">
         <v>2020</v>
       </c>
-      <c r="C55" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D56" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4616895</v>
       </c>
-      <c r="E55" s="13">
+      <c r="E56" s="13">
         <v>368711</v>
       </c>
-      <c r="F55" s="13">
+      <c r="F56" s="13">
         <v>4248184</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G56" s="14">
         <v>10434.000000000002</v>
       </c>
     </row>
-    <row r="56" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B56" s="15">
+    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B57" s="15">
         <v>2020</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C57" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D56" s="16">
+      <c r="D57" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2820669</v>
       </c>
-      <c r="E56" s="17">
+      <c r="E57" s="17">
         <v>428537.00000000006</v>
       </c>
-      <c r="F56" s="17">
+      <c r="F57" s="17">
         <v>2392132</v>
       </c>
-      <c r="G56" s="17">
+      <c r="G57" s="17">
         <v>11726</v>
       </c>
     </row>
-    <row r="57" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B57" s="10">
+    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B58" s="10">
         <v>2020</v>
       </c>
-      <c r="C57" s="11" t="s">
+      <c r="C58" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D58" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2589982</v>
       </c>
-      <c r="E57" s="13">
+      <c r="E58" s="13">
         <v>415335</v>
       </c>
-      <c r="F57" s="13">
+      <c r="F58" s="13">
         <v>2174647</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G58" s="14">
         <v>9943.9999999999982</v>
       </c>
     </row>
-    <row r="58" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B58" s="15">
+    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B59" s="15">
         <v>2020</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C59" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="16">
+      <c r="D59" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2641413</v>
       </c>
-      <c r="E58" s="17">
+      <c r="E59" s="17">
         <v>410097.00000000006</v>
       </c>
-      <c r="F58" s="17">
+      <c r="F59" s="17">
         <v>2231316</v>
       </c>
-      <c r="G58" s="17">
+      <c r="G59" s="17">
         <v>9178</v>
       </c>
     </row>
-    <row r="59" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B59" s="10">
+    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B60" s="10">
         <v>2020</v>
       </c>
-      <c r="C59" s="11" t="s">
+      <c r="C60" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D60" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4586818</v>
       </c>
-      <c r="E59" s="13">
+      <c r="E60" s="13">
         <v>410620</v>
       </c>
-      <c r="F59" s="13">
+      <c r="F60" s="13">
         <v>4176198</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G60" s="14">
         <v>8514</v>
       </c>
     </row>
-    <row r="60" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B60" s="15">
+    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="15">
         <v>2020</v>
       </c>
-      <c r="C60" s="15" t="s">
+      <c r="C61" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D60" s="16">
+      <c r="D61" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2631209</v>
       </c>
-      <c r="E60" s="17">
+      <c r="E61" s="17">
         <v>419425</v>
       </c>
-      <c r="F60" s="17">
+      <c r="F61" s="17">
         <v>2211784</v>
       </c>
-      <c r="G60" s="17">
+      <c r="G61" s="17">
         <v>8624</v>
       </c>
     </row>
-    <row r="61" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B61" s="10">
+    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B62" s="10">
         <v>2020</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C62" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D61" s="12">
+      <c r="D62" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2577474</v>
       </c>
-      <c r="E61" s="13">
+      <c r="E62" s="13">
         <v>401798</v>
       </c>
-      <c r="F61" s="13">
+      <c r="F62" s="13">
         <v>2175676</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G62" s="14">
         <v>9635</v>
       </c>
     </row>
-    <row r="62" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B62" s="15">
+    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B63" s="15">
         <v>2020</v>
       </c>
-      <c r="C62" s="15" t="s">
+      <c r="C63" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D62" s="16">
+      <c r="D63" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2308615</v>
       </c>
-      <c r="E62" s="17">
+      <c r="E63" s="17">
         <v>333280</v>
       </c>
-      <c r="F62" s="17">
+      <c r="F63" s="17">
         <v>1975335</v>
       </c>
-      <c r="G62" s="17">
+      <c r="G63" s="17">
         <v>10094.000000000002</v>
       </c>
     </row>
-    <row r="63" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B63" s="10">
+    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B64" s="10">
         <v>2020</v>
       </c>
-      <c r="C63" s="11" t="s">
+      <c r="C64" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D64" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>6857420</v>
       </c>
-      <c r="E63" s="13">
+      <c r="E64" s="13">
         <v>468408</v>
       </c>
-      <c r="F63" s="13">
+      <c r="F64" s="13">
         <v>6389012</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G64" s="14">
         <v>14582.999999999998</v>
       </c>
     </row>
-    <row r="64" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B64" s="15">
+    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B65" s="15">
         <v>2020</v>
       </c>
-      <c r="C64" s="15" t="s">
+      <c r="C65" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="16">
+      <c r="D65" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3008974</v>
       </c>
-      <c r="E64" s="17">
+      <c r="E65" s="17">
         <v>356550</v>
       </c>
-      <c r="F64" s="17">
+      <c r="F65" s="17">
         <v>2652424</v>
       </c>
-      <c r="G64" s="17">
+      <c r="G65" s="17">
         <v>12825</v>
       </c>
     </row>
-    <row r="65" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B65" s="19">
+    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B66" s="19">
         <v>2020</v>
       </c>
-      <c r="C65" s="20" t="s">
+      <c r="C66" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D65" s="21">
+      <c r="D66" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5638723</v>
       </c>
-      <c r="E65" s="22">
+      <c r="E66" s="22">
         <v>355152</v>
       </c>
-      <c r="F65" s="22">
+      <c r="F66" s="22">
         <v>5283571</v>
       </c>
-      <c r="G65" s="23">
+      <c r="G66" s="23">
         <v>17022</v>
       </c>
     </row>
-    <row r="66" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B66" s="15">
+    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B67" s="15">
         <v>2019</v>
       </c>
-      <c r="C66" s="15" t="s">
+      <c r="C67" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D66" s="16">
+      <c r="D67" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3200326</v>
       </c>
-      <c r="E66" s="17">
+      <c r="E67" s="17">
         <v>407756.99999999994</v>
       </c>
-      <c r="F66" s="17">
+      <c r="F67" s="17">
         <v>2792569</v>
       </c>
-      <c r="G66" s="17">
+      <c r="G67" s="17">
         <v>13780.999999999998</v>
       </c>
     </row>
-    <row r="67" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B67" s="10">
+    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B68" s="10">
         <v>2019</v>
       </c>
-      <c r="C67" s="11" t="s">
+      <c r="C68" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D67" s="12">
+      <c r="D68" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5164359</v>
       </c>
-      <c r="E67" s="13">
+      <c r="E68" s="13">
         <v>379206</v>
       </c>
-      <c r="F67" s="13">
+      <c r="F68" s="13">
         <v>4785153</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G68" s="14">
         <v>15446</v>
       </c>
     </row>
-    <row r="68" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B68" s="15">
+    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B69" s="15">
         <v>2019</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="C69" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D68" s="16">
+      <c r="D69" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5119815</v>
       </c>
-      <c r="E68" s="17">
+      <c r="E69" s="17">
         <v>448438.99999999994</v>
       </c>
-      <c r="F68" s="17">
+      <c r="F69" s="17">
         <v>4671376</v>
       </c>
-      <c r="G68" s="17">
+      <c r="G69" s="17">
         <v>13698</v>
       </c>
     </row>
-    <row r="69" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B69" s="10">
+    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B70" s="10">
         <v>2019</v>
       </c>
-      <c r="C69" s="11" t="s">
+      <c r="C70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D70" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3200598</v>
       </c>
-      <c r="E69" s="13">
+      <c r="E70" s="13">
         <v>416794</v>
       </c>
-      <c r="F69" s="13">
+      <c r="F70" s="13">
         <v>2783804</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G70" s="14">
         <v>14985</v>
       </c>
     </row>
-    <row r="70" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B70" s="15">
+    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B71" s="15">
         <v>2019</v>
       </c>
-      <c r="C70" s="15" t="s">
+      <c r="C71" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D70" s="16">
+      <c r="D71" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>5058319</v>
       </c>
-      <c r="E70" s="17">
+      <c r="E71" s="17">
         <v>435424</v>
       </c>
-      <c r="F70" s="17">
+      <c r="F71" s="17">
         <v>4622895</v>
       </c>
-      <c r="G70" s="17">
+      <c r="G71" s="17">
         <v>16766</v>
       </c>
     </row>
-    <row r="71" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B71" s="10">
+    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B72" s="10">
         <v>2019</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="C72" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D71" s="12">
+      <c r="D72" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3722028</v>
       </c>
-      <c r="E71" s="13">
+      <c r="E72" s="13">
         <v>444124</v>
       </c>
-      <c r="F71" s="13">
+      <c r="F72" s="13">
         <v>3277904</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G72" s="14">
         <v>19034</v>
       </c>
     </row>
-    <row r="72" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B72" s="15">
+    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="15">
         <v>2019</v>
       </c>
-      <c r="C72" s="15" t="s">
+      <c r="C73" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D72" s="16">
+      <c r="D73" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4233251</v>
       </c>
-      <c r="E72" s="17">
+      <c r="E73" s="17">
         <v>409967</v>
       </c>
-      <c r="F72" s="17">
+      <c r="F73" s="17">
         <v>3823284</v>
       </c>
-      <c r="G72" s="17">
+      <c r="G73" s="17">
         <v>19962</v>
       </c>
     </row>
-    <row r="73" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B73" s="10">
+    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B74" s="10">
         <v>2019</v>
       </c>
-      <c r="C73" s="11" t="s">
+      <c r="C74" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D73" s="12">
+      <c r="D74" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4029801</v>
       </c>
-      <c r="E73" s="13">
+      <c r="E74" s="13">
         <v>467137</v>
       </c>
-      <c r="F73" s="13">
+      <c r="F74" s="13">
         <v>3562664</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G74" s="14">
         <v>21576</v>
       </c>
     </row>
-    <row r="74" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B74" s="15">
+    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B75" s="15">
         <v>2019</v>
       </c>
-      <c r="C74" s="15" t="s">
+      <c r="C75" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D74" s="16">
+      <c r="D75" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4241074</v>
       </c>
-      <c r="E74" s="17">
+      <c r="E75" s="17">
         <v>405415</v>
       </c>
-      <c r="F74" s="17">
+      <c r="F75" s="17">
         <v>3835659</v>
       </c>
-      <c r="G74" s="17">
+      <c r="G75" s="17">
         <v>20334</v>
       </c>
     </row>
-    <row r="75" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B75" s="10">
+    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B76" s="10">
         <v>2019</v>
       </c>
-      <c r="C75" s="11" t="s">
+      <c r="C76" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D75" s="12">
+      <c r="D76" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3091213</v>
       </c>
-      <c r="E75" s="13">
+      <c r="E76" s="13">
         <v>391382.00000000006</v>
       </c>
-      <c r="F75" s="13">
+      <c r="F76" s="13">
         <v>2699831</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G76" s="14">
         <v>21218</v>
       </c>
     </row>
-    <row r="76" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B76" s="15">
+    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B77" s="15">
         <v>2019</v>
       </c>
-      <c r="C76" s="15" t="s">
+      <c r="C77" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D76" s="16">
+      <c r="D77" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3672837</v>
       </c>
-      <c r="E76" s="17">
+      <c r="E77" s="17">
         <v>337848</v>
       </c>
-      <c r="F76" s="17">
+      <c r="F77" s="17">
         <v>3334989</v>
       </c>
-      <c r="G76" s="17">
+      <c r="G77" s="17">
         <v>22624</v>
       </c>
     </row>
-    <row r="77" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B77" s="19">
+    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B78" s="19">
         <v>2019</v>
       </c>
-      <c r="C77" s="20" t="s">
+      <c r="C78" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="D77" s="21">
+      <c r="D78" s="21">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3870104</v>
       </c>
-      <c r="E77" s="22">
+      <c r="E78" s="22">
         <v>350680</v>
       </c>
-      <c r="F77" s="22">
+      <c r="F78" s="22">
         <v>3519424</v>
       </c>
-      <c r="G77" s="23">
+      <c r="G78" s="23">
         <v>24067</v>
       </c>
     </row>
-    <row r="78" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B78" s="15">
+    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B79" s="15">
         <v>2018</v>
       </c>
-      <c r="C78" s="15" t="s">
+      <c r="C79" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D78" s="16">
+      <c r="D79" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>2979800</v>
       </c>
-      <c r="E78" s="17">
+      <c r="E79" s="17">
         <v>392300</v>
       </c>
-      <c r="F78" s="17">
+      <c r="F79" s="17">
         <v>2587500</v>
       </c>
-      <c r="G78" s="17">
+      <c r="G79" s="17">
         <v>24300</v>
       </c>
     </row>
-    <row r="79" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B79" s="10">
+    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B80" s="10">
         <v>2018</v>
       </c>
-      <c r="C79" s="11" t="s">
+      <c r="C80" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D80" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4046200</v>
       </c>
-      <c r="E79" s="13">
+      <c r="E80" s="13">
         <v>395100</v>
       </c>
-      <c r="F79" s="13">
+      <c r="F80" s="13">
         <v>3651100</v>
       </c>
-      <c r="G79" s="14">
+      <c r="G80" s="14">
         <v>25200</v>
       </c>
     </row>
-    <row r="80" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B80" s="15">
+    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B81" s="15">
         <v>2018</v>
       </c>
-      <c r="C80" s="15" t="s">
+      <c r="C81" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D80" s="16">
+      <c r="D81" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3560300</v>
       </c>
-      <c r="E80" s="17">
+      <c r="E81" s="17">
         <v>458000</v>
       </c>
-      <c r="F80" s="17">
+      <c r="F81" s="17">
         <v>3102300</v>
       </c>
-      <c r="G80" s="17">
+      <c r="G81" s="17">
         <v>26200</v>
       </c>
     </row>
-    <row r="81" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B81" s="10">
+    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B82" s="10">
         <v>2018</v>
       </c>
-      <c r="C81" s="11" t="s">
+      <c r="C82" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D81" s="12">
+      <c r="D82" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3698500</v>
       </c>
-      <c r="E81" s="13">
+      <c r="E82" s="13">
         <v>388100</v>
       </c>
-      <c r="F81" s="13">
+      <c r="F82" s="13">
         <v>3310400</v>
       </c>
-      <c r="G81" s="14">
+      <c r="G82" s="14">
         <v>27800</v>
       </c>
     </row>
-    <row r="82" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B82" s="15">
+    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B83" s="15">
         <v>2018</v>
       </c>
-      <c r="C82" s="15" t="s">
+      <c r="C83" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="D82" s="16">
+      <c r="D83" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4356300</v>
       </c>
-      <c r="E82" s="17">
+      <c r="E83" s="17">
         <v>410200</v>
       </c>
-      <c r="F82" s="17">
+      <c r="F83" s="17">
         <v>3946100</v>
       </c>
-      <c r="G82" s="17">
+      <c r="G83" s="17">
         <v>27600</v>
       </c>
     </row>
-    <row r="83" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B83" s="10">
+    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B84" s="10">
         <v>2018</v>
       </c>
-      <c r="C83" s="11" t="s">
+      <c r="C84" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D84" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3201300</v>
       </c>
-      <c r="E83" s="13">
+      <c r="E84" s="13">
         <v>440000</v>
       </c>
-      <c r="F83" s="13">
+      <c r="F84" s="13">
         <v>2761300</v>
       </c>
-      <c r="G83" s="14">
+      <c r="G84" s="14">
         <v>26300</v>
       </c>
     </row>
-    <row r="84" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B84" s="15">
+    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B85" s="15">
         <v>2018</v>
       </c>
-      <c r="C84" s="15" t="s">
+      <c r="C85" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="D84" s="16">
+      <c r="D85" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4520600</v>
       </c>
-      <c r="E84" s="17">
+      <c r="E85" s="17">
         <v>453400</v>
       </c>
-      <c r="F84" s="17">
+      <c r="F85" s="17">
         <v>4067200</v>
       </c>
-      <c r="G84" s="17">
+      <c r="G85" s="17">
         <v>27000</v>
       </c>
     </row>
-    <row r="85" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B85" s="10">
+    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B86" s="10">
         <v>2018</v>
       </c>
-      <c r="C85" s="11" t="s">
+      <c r="C86" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D86" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3550800</v>
       </c>
-      <c r="E85" s="13">
+      <c r="E86" s="13">
         <v>495500</v>
       </c>
-      <c r="F85" s="13">
+      <c r="F86" s="13">
         <v>3055300</v>
       </c>
-      <c r="G85" s="14">
+      <c r="G86" s="14">
         <v>24500</v>
       </c>
     </row>
-    <row r="86" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B86" s="15">
+    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B87" s="15">
         <v>2018</v>
       </c>
-      <c r="C86" s="15" t="s">
+      <c r="C87" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D86" s="16">
+      <c r="D87" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4493500</v>
       </c>
-      <c r="E86" s="17">
+      <c r="E87" s="17">
         <v>406000</v>
       </c>
-      <c r="F86" s="17">
+      <c r="F87" s="17">
         <v>4087500</v>
       </c>
-      <c r="G86" s="17">
+      <c r="G87" s="17">
         <v>27400</v>
       </c>
     </row>
-    <row r="87" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B87" s="10">
+    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B88" s="10">
         <v>2018</v>
       </c>
-      <c r="C87" s="11" t="s">
+      <c r="C88" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D88" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3275600</v>
       </c>
-      <c r="E87" s="13">
+      <c r="E88" s="13">
         <v>388900</v>
       </c>
-      <c r="F87" s="13">
+      <c r="F88" s="13">
         <v>2886700</v>
       </c>
-      <c r="G87" s="14">
+      <c r="G88" s="14">
         <v>23400</v>
       </c>
     </row>
-    <row r="88" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B88" s="15">
+    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B89" s="15">
         <v>2018</v>
       </c>
-      <c r="C88" s="15" t="s">
+      <c r="C89" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D88" s="16">
+      <c r="D89" s="16">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>4100900</v>
       </c>
-      <c r="E88" s="17">
+      <c r="E89" s="17">
         <v>348600</v>
       </c>
-      <c r="F88" s="17">
+      <c r="F89" s="17">
         <v>3752300</v>
       </c>
-      <c r="G88" s="17">
+      <c r="G89" s="17">
         <v>26500</v>
       </c>
     </row>
-    <row r="89" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
-      <c r="B89" s="10">
+    <row r="90" spans="2:7" hidden="1" x14ac:dyDescent="0.45">
+      <c r="B90" s="10">
         <v>2018</v>
       </c>
-      <c r="C89" s="11" t="s">
+      <c r="C90" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="D89" s="12">
+      <c r="D90" s="12">
         <f>SUM(Tabla3[[#This Row],[Nacionales]:[Internacionales]])</f>
         <v>3724100</v>
       </c>
-      <c r="E89" s="13">
+      <c r="E90" s="13">
         <v>358200</v>
       </c>
-      <c r="F89" s="13">
+      <c r="F90" s="13">
         <v>3365900</v>
       </c>
-      <c r="G89" s="14">
+      <c r="G90" s="14">
         <v>26500</v>
       </c>
-    </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B90" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="C90" s="24"/>
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B91" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="24"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B92" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="24"/>
-    </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="B92" s="3" t="s">
+      <c r="C92" s="24"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B93" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="G93" s="25"/>
-    </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.45">
-      <c r="D94" s="3"/>
+      <c r="G94" s="25"/>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="D95" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
